--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -93,7 +93,7 @@
       <color rgb="006B7280"/>
     </font>
   </fonts>
-  <fills count="59">
+  <fills count="60">
     <fill>
       <patternFill/>
     </fill>
@@ -440,6 +440,11 @@
         <fgColor rgb="000EA5E9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F59E0B"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -734,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1275,6 +1280,8 @@
     <xf numFmtId="0" fontId="1" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2030,19 +2037,20 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K5" s="201" t="inlineStr">
+      <c r="G5" s="204" t="inlineStr"/>
+      <c r="K5" s="203" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="N5" s="201" t="inlineStr">
+      <c r="N5" s="203" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AE5" s="203" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AE5" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="AP5" s="203" t="inlineStr">
@@ -2201,19 +2209,20 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="W8" s="203" t="inlineStr">
+      <c r="W8" s="204" t="inlineStr"/>
+      <c r="AE8" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AE8" s="201" t="inlineStr">
+      <c r="AI8" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AP8" s="203" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AI8" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
         </is>
       </c>
     </row>
@@ -2248,6 +2257,11 @@
           <t>D20:00-120 PLB</t>
         </is>
       </c>
+      <c r="AD9" s="205" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="AH9" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
@@ -2263,11 +2277,7 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AP9" s="195" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
+      <c r="AP9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6236,7 +6246,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Frank Petermann / Michael Rabehl</t>
+          <t>Torsten Bartel / Michael Rabehl</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6271,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Patrick Buehrsch / Torsten Bartel</t>
+          <t>Patrick Buehrsch / Frank Petermann</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6496,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Frank Koller / Torsten Bartel</t>
+          <t>Torsten Bartel / Michael Rabehl</t>
         </is>
       </c>
     </row>
@@ -6536,7 +6546,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Michael Rabehl</t>
+          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Kerstin Baarck</t>
         </is>
       </c>
     </row>
@@ -9587,7 +9597,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Keine Konflikte gefunden.</t>
+          <t>Datum</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -93,7 +93,7 @@
       <color rgb="006B7280"/>
     </font>
   </fonts>
-  <fills count="60">
+  <fills count="61">
     <fill>
       <patternFill/>
     </fill>
@@ -445,6 +445,11 @@
         <fgColor rgb="00F59E0B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001D4ED8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -739,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1282,6 +1287,8 @@
     <xf numFmtId="0" fontId="1" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1665,7 +1672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT49"/>
+  <dimension ref="A1:AQ49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1796,97 +1803,97 @@
           <t>Markus Muench</t>
         </is>
       </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck</t>
+        </is>
+      </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Mohamad Albadry</t>
+          <t>Torsten Bartel</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Wolfgang Aleksik</t>
+          <t>Oliver Böss</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Kerstin Baarck</t>
+          <t>Sebastian Braune</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>Torsten Bartel</t>
+          <t>Gunnar Brix</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Oliver Böss</t>
+          <t>Andreas Dank</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Sebastian Braune</t>
+          <t>Jens Hafner</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>Gunnar Brix</t>
+          <t>Anke Ihde</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Andreas Dank</t>
+          <t>Björn Junker</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>Jens Hafner</t>
+          <t>Tobias Kahl</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>Anke Ihde</t>
+          <t>Lorenz Kramp</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>Björn Junker</t>
+          <t>Lena Meiß</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Tobias Kahl</t>
+          <t>Michael Rabehl</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>Lorenz Kramp</t>
+          <t>Martina Schmidt</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Lena Meiß</t>
+          <t>Bernd Sotzek</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>Michael Rabehl</t>
+          <t>Arndt Stüber</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
-        <is>
-          <t>Martina Schmidt</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>Bernd Sotzek</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>Arndt Stüber</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
         <is>
           <t>Heiko Thomsen</t>
         </is>
@@ -1923,24 +1930,24 @@
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AB3" s="194" t="inlineStr">
+      <c r="Y3" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AD3" s="195" t="inlineStr">
+      <c r="AA3" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AJ3" s="195" t="inlineStr">
+      <c r="AI3" s="194" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="AJ3" s="205" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AL3" s="194" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
         </is>
       </c>
     </row>
@@ -1965,62 +1972,63 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="E4" s="201" t="inlineStr">
+      <c r="E4" s="204" t="inlineStr"/>
+      <c r="F4" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="G4" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="I4" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="F4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="G4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="I4" s="201" t="inlineStr">
+      <c r="J4" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="L4" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="N4" s="206" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="J4" s="197" t="inlineStr">
+      <c r="Q4" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="W4" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="X4" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="Z4" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="L4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Q4" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="W4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X4" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AC4" s="197" t="inlineStr">
+      <c r="AK4" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AN4" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AS4" s="196" t="inlineStr">
+      <c r="AP4" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
@@ -2043,17 +2051,18 @@
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="N5" s="203" t="inlineStr">
+      <c r="N5" s="204" t="inlineStr"/>
+      <c r="W5" s="203" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AE5" s="203" t="inlineStr">
+      <c r="AB5" s="203" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AP5" s="203" t="inlineStr">
+      <c r="AM5" s="203" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -2080,32 +2089,32 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="R6" s="195" t="inlineStr">
+      <c r="Y6" s="194" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="AD6" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AB6" s="194" t="inlineStr">
+      <c r="AI6" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AG6" s="195" t="inlineStr">
+      <c r="AJ6" s="205" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AL6" s="194" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="AO6" s="195" t="inlineStr">
+      <c r="AL6" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AQ6" s="195" t="inlineStr">
+      <c r="AN6" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -2132,62 +2141,63 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="E7" s="201" t="inlineStr">
+      <c r="E7" s="204" t="inlineStr"/>
+      <c r="F7" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="I7" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="F7" s="197" t="inlineStr">
+      <c r="J7" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="I7" s="201" t="inlineStr">
+      <c r="N7" s="206" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="J7" s="197" t="inlineStr">
+      <c r="Q7" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="S7" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="W7" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="X7" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AE7" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="AG7" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="AK7" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="Q7" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="S7" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="W7" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X7" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AH7" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AJ7" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AN7" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AS7" s="196" t="inlineStr">
+      <c r="AP7" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
@@ -2204,23 +2214,23 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="N8" s="201" t="inlineStr">
+      <c r="N8" s="204" t="inlineStr"/>
+      <c r="W8" s="203" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="W8" s="204" t="inlineStr"/>
-      <c r="AE8" s="201" t="inlineStr">
+      <c r="AB8" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AI8" s="201" t="inlineStr">
+      <c r="AF8" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AP8" s="203" t="inlineStr">
+      <c r="AM8" s="203" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -2252,32 +2262,31 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AB9" s="195" t="inlineStr">
+      <c r="AA9" s="205" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AD9" s="205" t="inlineStr">
+      <c r="AE9" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AH9" s="195" t="inlineStr">
+      <c r="AF9" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AI9" s="195" t="inlineStr">
+      <c r="AI9" s="194" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="AJ9" s="205" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AL9" s="194" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2335,27 +2344,27 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AF10" s="201" t="inlineStr">
+      <c r="AC10" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
+      <c r="AD10" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
       <c r="AG10" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AJ10" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AN10" s="196" t="inlineStr">
+      <c r="AK10" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AR10" s="196" t="inlineStr">
+      <c r="AO10" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
@@ -2377,17 +2386,18 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="N11" s="201" t="inlineStr">
+      <c r="N11" s="204" t="inlineStr"/>
+      <c r="R11" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AB11" s="203" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="R11" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AP11" s="203" t="inlineStr">
+      <c r="AM11" s="203" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -2419,27 +2429,27 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AB12" s="195" t="inlineStr">
+      <c r="Y12" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AI12" s="195" t="inlineStr">
+      <c r="AH12" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AK12" s="195" t="inlineStr">
+      <c r="AI12" s="194" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="AJ12" s="205" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AL12" s="194" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="AQ12" s="195" t="inlineStr">
+      <c r="AN12" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -2466,62 +2476,63 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="E13" s="201" t="inlineStr">
+      <c r="E13" s="204" t="inlineStr"/>
+      <c r="I13" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="L13" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="I13" s="197" t="inlineStr">
+      <c r="N13" s="206" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="P13" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="L13" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="P13" s="197" t="inlineStr">
+      <c r="Q13" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="Q13" s="197" t="inlineStr">
+      <c r="S13" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="T13" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="V13" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="X13" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="AD13" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="S13" s="196" t="inlineStr">
+      <c r="AE13" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="T13" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="V13" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X13" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AG13" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AH13" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AJ13" s="196" t="inlineStr">
+      <c r="AG13" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
@@ -2538,22 +2549,23 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="N14" s="201" t="inlineStr">
+      <c r="N14" s="204" t="inlineStr"/>
+      <c r="U14" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AC14" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="U14" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AF14" s="201" t="inlineStr">
+      <c r="AM14" s="203" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AS14" s="201" t="inlineStr">
+      <c r="AP14" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -2590,22 +2602,22 @@
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AH15" s="195" t="inlineStr">
+      <c r="AE15" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AI15" s="195" t="inlineStr">
+      <c r="AF15" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AL15" s="194" t="inlineStr">
+      <c r="AI15" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AM15" s="195" t="inlineStr">
+      <c r="AJ15" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -2672,22 +2684,22 @@
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AC16" s="201" t="inlineStr">
+      <c r="Z16" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AJ16" s="196" t="inlineStr">
+      <c r="AG16" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AS16" s="196" t="inlineStr">
+      <c r="AP16" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AT16" s="197" t="inlineStr">
+      <c r="AQ16" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
@@ -2714,12 +2726,12 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AE17" s="201" t="inlineStr">
+      <c r="AB17" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AF17" s="201" t="inlineStr">
+      <c r="AC17" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -2756,22 +2768,22 @@
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AB18" s="194" t="inlineStr">
+      <c r="Y18" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AI18" s="195" t="inlineStr">
+      <c r="AI18" s="194" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="AJ18" s="205" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AL18" s="194" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="AQ18" s="195" t="inlineStr">
+      <c r="AN18" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -2838,22 +2850,22 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AC19" s="201" t="inlineStr">
+      <c r="Z19" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AJ19" s="196" t="inlineStr">
+      <c r="AG19" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AS19" s="196" t="inlineStr">
+      <c r="AP19" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AT19" s="201" t="inlineStr">
+      <c r="AQ19" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
@@ -2885,7 +2897,7 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AF20" s="201" t="inlineStr">
+      <c r="AC20" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -2917,27 +2929,27 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AE21" s="195" t="inlineStr">
+      <c r="AB21" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AI21" s="195" t="inlineStr">
+      <c r="AF21" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AL21" s="194" t="inlineStr">
+      <c r="AI21" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AN21" s="195" t="inlineStr">
+      <c r="AJ21" s="205" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AP21" s="195" t="inlineStr">
+      <c r="AM21" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -3009,7 +3021,7 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AF22" s="201" t="inlineStr">
+      <c r="AC22" s="201" t="inlineStr">
         <is>
           <t>E20:30-90 PLB</t>
         </is>
@@ -3041,7 +3053,7 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AT23" s="201" t="inlineStr">
+      <c r="AQ23" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -3073,27 +3085,27 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AD24" s="195" t="inlineStr">
+      <c r="AA24" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AH24" s="195" t="inlineStr">
+      <c r="AE24" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AI24" s="195" t="inlineStr">
+      <c r="AF24" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AL24" s="194" t="inlineStr">
+      <c r="AI24" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AO24" s="195" t="inlineStr">
+      <c r="AL24" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -3140,42 +3152,42 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AC25" s="201" t="inlineStr">
+      <c r="Z25" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AJ25" s="196" t="inlineStr">
+      <c r="AG25" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AK25" s="197" t="inlineStr">
+      <c r="AH25" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AN25" s="196" t="inlineStr">
+      <c r="AK25" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AQ25" s="197" t="inlineStr">
+      <c r="AN25" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AR25" s="201" t="inlineStr">
+      <c r="AO25" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AS25" s="201" t="inlineStr">
+      <c r="AP25" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AT25" s="201" t="inlineStr">
+      <c r="AQ25" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
@@ -3239,27 +3251,27 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AB27" s="195" t="inlineStr">
+      <c r="Y27" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AH27" s="195" t="inlineStr">
+      <c r="AE27" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AI27" s="195" t="inlineStr">
+      <c r="AF27" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AL27" s="194" t="inlineStr">
+      <c r="AI27" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AM27" s="195" t="inlineStr">
+      <c r="AJ27" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -3331,17 +3343,17 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AC28" s="196" t="inlineStr">
+      <c r="Z28" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AN28" s="201" t="inlineStr">
+      <c r="AK28" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AR28" s="201" t="inlineStr">
+      <c r="AO28" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -3373,7 +3385,7 @@
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AF29" s="201" t="inlineStr">
+      <c r="AC29" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -3405,27 +3417,27 @@
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AB30" s="194" t="inlineStr">
+      <c r="Y30" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AG30" s="195" t="inlineStr">
+      <c r="AD30" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AI30" s="195" t="inlineStr">
+      <c r="AF30" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AL30" s="194" t="inlineStr">
+      <c r="AI30" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AO30" s="195" t="inlineStr">
+      <c r="AL30" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -3487,27 +3499,27 @@
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AJ31" s="201" t="inlineStr">
+      <c r="AG31" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AN31" s="201" t="inlineStr">
+      <c r="AK31" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AR31" s="201" t="inlineStr">
+      <c r="AO31" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AS31" s="201" t="inlineStr">
+      <c r="AP31" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AT31" s="201" t="inlineStr">
+      <c r="AQ31" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
@@ -3539,7 +3551,7 @@
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AE32" s="201" t="inlineStr">
+      <c r="AB32" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -3571,27 +3583,27 @@
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AB33" s="194" t="inlineStr">
+      <c r="Y33" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AK33" s="195" t="inlineStr">
+      <c r="AH33" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AL33" s="194" t="inlineStr">
+      <c r="AI33" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AP33" s="195" t="inlineStr">
+      <c r="AM33" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AQ33" s="195" t="inlineStr">
+      <c r="AN33" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -3638,42 +3650,42 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AC34" s="201" t="inlineStr">
+      <c r="Z34" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AG34" s="197" t="inlineStr">
+      <c r="AD34" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AI34" s="196" t="inlineStr">
+      <c r="AF34" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AJ34" s="196" t="inlineStr">
+      <c r="AG34" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AM34" s="197" t="inlineStr">
+      <c r="AJ34" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AN34" s="201" t="inlineStr">
+      <c r="AK34" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AR34" s="201" t="inlineStr">
+      <c r="AO34" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AT34" s="201" t="inlineStr">
+      <c r="AQ34" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
@@ -3705,7 +3717,7 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AF35" s="201" t="inlineStr">
+      <c r="AC35" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -3742,22 +3754,22 @@
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AB36" s="194" t="inlineStr">
+      <c r="Y36" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AH36" s="195" t="inlineStr">
+      <c r="AE36" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AL36" s="194" t="inlineStr">
+      <c r="AI36" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AO36" s="195" t="inlineStr">
+      <c r="AL36" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -3824,22 +3836,22 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AG37" s="197" t="inlineStr">
+      <c r="AD37" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AN37" s="197" t="inlineStr">
+      <c r="AK37" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AR37" s="201" t="inlineStr">
+      <c r="AO37" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AS37" s="201" t="inlineStr">
+      <c r="AP37" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -3903,27 +3915,27 @@
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AB39" s="194" t="inlineStr">
+      <c r="Y39" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AK39" s="195" t="inlineStr">
+      <c r="AH39" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AL39" s="194" t="inlineStr">
+      <c r="AI39" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AP39" s="195" t="inlineStr">
+      <c r="AM39" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AQ39" s="195" t="inlineStr">
+      <c r="AN39" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -3965,47 +3977,47 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
+      <c r="Z40" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AC40" s="201" t="inlineStr">
         <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="AD40" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AE40" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AG40" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AJ40" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AO40" s="201" t="inlineStr">
+        <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AF40" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AG40" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AH40" s="197" t="inlineStr">
+      <c r="AP40" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AJ40" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AM40" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AR40" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AS40" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AT40" s="201" t="inlineStr">
+      <c r="AQ40" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
@@ -4064,32 +4076,32 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AB42" s="194" t="inlineStr">
+      <c r="Y42" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
+      <c r="AA42" s="195" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="AD42" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AG42" s="195" t="inlineStr">
+      <c r="AF42" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AI42" s="195" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AL42" s="194" t="inlineStr">
+      <c r="AI42" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AO42" s="195" t="inlineStr">
+      <c r="AL42" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -4161,17 +4173,17 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AH43" s="197" t="inlineStr">
+      <c r="AE43" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AN43" s="201" t="inlineStr">
+      <c r="AK43" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AR43" s="201" t="inlineStr">
+      <c r="AO43" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -4188,22 +4200,23 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="N44" s="201" t="inlineStr">
+      <c r="N44" s="204" t="inlineStr"/>
+      <c r="O44" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="U44" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AB44" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="O44" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="U44" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AE44" s="201" t="inlineStr">
+      <c r="AQ44" s="203" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -4235,27 +4248,27 @@
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AB45" s="194" t="inlineStr">
+      <c r="Y45" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AK45" s="195" t="inlineStr">
+      <c r="AH45" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AL45" s="194" t="inlineStr">
+      <c r="AI45" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AP45" s="195" t="inlineStr">
+      <c r="AM45" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AQ45" s="195" t="inlineStr">
+      <c r="AN45" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -4292,22 +4305,22 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AF46" s="201" t="inlineStr">
+      <c r="AC46" s="201" t="inlineStr">
         <is>
           <t>E20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AJ46" s="201" t="inlineStr">
+      <c r="AG46" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AN46" s="201" t="inlineStr">
+      <c r="AK46" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AR46" s="201" t="inlineStr">
+      <c r="AO46" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -4324,24 +4337,25 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="N47" s="201" t="inlineStr">
+      <c r="N47" s="204" t="inlineStr"/>
+      <c r="O47" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="O47" s="201" t="inlineStr">
+      <c r="U47" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AF47" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AQ47" s="203" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="U47" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AI47" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4380,13 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N48" s="194" t="inlineStr">
+      <c r="N48" t="inlineStr"/>
+      <c r="Y48" s="195" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="AA48" s="207" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
@@ -4376,22 +4396,17 @@
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AE48" s="195" t="inlineStr">
+      <c r="AF48" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AI48" s="195" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AL48" s="194" t="inlineStr">
+      <c r="AI48" s="194" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AP48" s="195" t="inlineStr">
+      <c r="AM48" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -4448,22 +4463,22 @@
           <t>E20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AC49" s="197" t="inlineStr">
+      <c r="Z49" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AF49" s="201" t="inlineStr">
+      <c r="AC49" s="201" t="inlineStr">
         <is>
           <t>E20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AN49" s="197" t="inlineStr">
+      <c r="AK49" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AR49" s="201" t="inlineStr">
+      <c r="AO49" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -6096,7 +6111,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Carsten Gambal / Jan Pappenheim / Kerstin Baarck / Jens Hafner</t>
+          <t>Carsten Gambal / Jan Pappenheim / Kerstin Baarck / Tobias Kahl</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6126,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6121,7 +6136,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Manfred Grell / Kai Schroder / Wolfgang Aleksik / Lorenz Kramp</t>
+          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
         </is>
       </c>
     </row>
@@ -6136,7 +6151,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6146,7 +6161,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
+          <t>Manfred Grell / Kai Schroder / Wolfgang Aleksik / Lorenz Kramp</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6176,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6171,7 +6186,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Bernd Robioneck</t>
+          <t>Jurgen Hansen / Jorg Peters</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6201,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6196,7 +6211,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jens Krause / Frank Koller</t>
+          <t>Bernd Robioneck / Frank Petermann</t>
         </is>
       </c>
     </row>
@@ -6211,7 +6226,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6221,7 +6236,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
+          <t>Jens Krause / Frank Koller</t>
         </is>
       </c>
     </row>
@@ -6236,7 +6251,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -6246,7 +6261,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Torsten Bartel / Michael Rabehl</t>
+          <t>Patrick Buehrsch / Frank Koller</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6276,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -6271,7 +6286,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Patrick Buehrsch / Frank Petermann</t>
+          <t>Torsten Bartel / Michael Rabehl</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6336,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Carsten Gambal / Sebastian Braune / Lena Meiß / Martina Schmidt</t>
+          <t>Sebastian Braune / Tobias Kahl / Lena Meiß / Martina Schmidt</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6351,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6346,7 +6361,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Manfred Grell / Jurgen Hansen / Kai Schroder / Lorenz Kramp</t>
+          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6376,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -6371,7 +6386,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
+          <t>Manfred Grell / Jurgen Hansen / Kai Schroder / Lorenz Kramp</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6411,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Bernd Robioneck</t>
+          <t>Bernd Robioneck / Frank Petermann</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6486,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Frank Petermann / Andreas Dank</t>
+          <t>Frank Koller / Andreas Dank</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6561,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Kerstin Baarck</t>
+          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
         </is>
       </c>
     </row>
@@ -6561,17 +6576,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Jan Pappenheim / Karsten Usinger / Sebastian Braune / Jens Hafner</t>
+          <t>Thomas Gruneberg / Patrick Buehrsch</t>
         </is>
       </c>
     </row>
@@ -6636,17 +6651,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Liam Wilde / Oliver Boss</t>
+          <t>Jan Pappenheim / Karsten Usinger / Sebastian Braune / Jens Hafner</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6676,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -6671,7 +6686,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Patrick Buehrsch</t>
+          <t>Liam Wilde / Oliver Boss</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6711,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
+          <t>Bernd Robioneck / Torsten Bartel</t>
         </is>
       </c>
     </row>
@@ -6771,7 +6786,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Mohamad Albadry / Andreas Dank / Anke Ihde / Martina Schmidt</t>
+          <t>Mohamad Albadry / Anke Ihde / Tobias Kahl / Martina Schmidt</t>
         </is>
       </c>
     </row>
@@ -6786,17 +6801,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Sebastian Braune</t>
+          <t>Matthias Duddek / Markus Muench</t>
         </is>
       </c>
     </row>
@@ -6811,17 +6826,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jan Pappenheim / Karsten Usinger / Gunnar Brix / Jens Hafner</t>
+          <t>Manfred Grell / Liam Wilde</t>
         </is>
       </c>
     </row>
@@ -6836,17 +6851,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Jens Krause</t>
+          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Sebastian Braune</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6876,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6871,7 +6886,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Manfred Grell / Liam Wilde</t>
+          <t>Jens Krause / Frank Petermann</t>
         </is>
       </c>
     </row>
@@ -6886,17 +6901,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Matthias Duddek / Markus Muench</t>
+          <t>Jan Pappenheim / Karsten Usinger / Gunnar Brix / Jens Hafner</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6926,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6921,7 +6936,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Frank Petermann / Oliver Boss</t>
+          <t>Thomas Bretschneider / Arndt Stuber</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6951,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6946,7 +6961,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Thomas Bretschneider / Arndt Stuber</t>
+          <t>Oliver Boss / Michael Rabehl</t>
         </is>
       </c>
     </row>
@@ -7036,17 +7051,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stuber</t>
+          <t>Thomas Gruneberg / Wolfgang Aleksik</t>
         </is>
       </c>
     </row>
@@ -7061,7 +7076,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -7071,7 +7086,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Wolfgang Aleksik</t>
+          <t>Jurgen Hansen / Kai Schroder</t>
         </is>
       </c>
     </row>
@@ -7111,17 +7126,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Jurgen Hansen / Kai Schroder</t>
+          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stuber</t>
         </is>
       </c>
     </row>
@@ -7136,7 +7151,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -7146,7 +7161,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Frank Petermann / Torsten Bartel</t>
+          <t>Patrick Buehrsch / Oliver Boss</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7176,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -7171,7 +7186,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Patrick Buehrsch / Oliver Boss</t>
+          <t>Frank Petermann / Torsten Bartel</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7236,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Carsten Gambal / Jan Pappenheim / Andreas Dank / Martina Schmidt</t>
+          <t>Carsten Gambal / Jan Pappenheim / Tobias Kahl / Martina Schmidt</t>
         </is>
       </c>
     </row>
@@ -7261,17 +7276,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stuber</t>
+          <t>Jorg Peters / Jens Krause</t>
         </is>
       </c>
     </row>
@@ -7286,17 +7301,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
+          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stuber</t>
         </is>
       </c>
     </row>
@@ -7336,7 +7351,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -7346,7 +7361,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Jorg Peters / Jens Krause</t>
+          <t>Wolfgang Aleksik / Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -7361,7 +7376,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -7371,7 +7386,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
+          <t>Patrick Buehrsch / Oliver Boss</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7401,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -7396,7 +7411,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Patrick Buehrsch / Oliver Boss</t>
+          <t>Frank Petermann / Thomas Bretschneider</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7461,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Torsten Bartel / Andreas Dank / Lorenz Kramp / Michael Rabehl</t>
+          <t>Torsten Bartel / Andreas Dank / Tobias Kahl / Michael Rabehl</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7526,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -7521,7 +7536,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Jens Krause / Ralf Colditz</t>
+          <t>Jurgen Hansen / Jorg Peters</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7551,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -7546,7 +7561,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
+          <t>Jens Krause / Ralf Colditz</t>
         </is>
       </c>
     </row>
@@ -7586,7 +7601,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -7596,7 +7611,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
+          <t>Bernd Robioneck / Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7626,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7621,7 +7636,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Bernd Robioneck / Heiko Thomsen</t>
+          <t>Frank Petermann / Thomas Bretschneider</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7701,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -7696,7 +7711,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ralf Colditz / Karsten Usinger / Anke Ihde / Martina Schmidt</t>
+          <t>Manfred Grell / Jan Pappenheim / Jens Hafner / Lorenz Kramp</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7726,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -7721,7 +7736,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Manfred Grell / Jan Pappenheim / Jens Hafner / Lorenz Kramp</t>
+          <t>Ralf Colditz / Karsten Usinger / Anke Ihde / Martina Schmidt</t>
         </is>
       </c>
     </row>
@@ -7736,7 +7751,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -7746,7 +7761,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
+          <t>Frank Koller / Bernd Sotzek</t>
         </is>
       </c>
     </row>
@@ -7761,7 +7776,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -7771,7 +7786,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Frank Koller / Bernd Sotzek</t>
+          <t>Markus Muench / Arndt Stuber</t>
         </is>
       </c>
     </row>
@@ -7786,7 +7801,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -7796,7 +7811,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Markus Muench / Arndt Stuber</t>
+          <t>Wolfgang Aleksik / Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -7936,17 +7951,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Wolfgang Aleksik</t>
+          <t>Thomas Gruneberg / Frank Koller</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7976,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -7971,7 +7986,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Frank Koller</t>
+          <t>Jurgen Hansen / Kai Schroder</t>
         </is>
       </c>
     </row>
@@ -7986,17 +8001,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
+          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Wolfgang Aleksik</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8026,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -8021,7 +8036,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Jurgen Hansen / Kai Schroder</t>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8151,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -8146,7 +8161,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
+          <t>Matthias Duddek / Manfred Grell / Michael Bock / Markus Muench</t>
         </is>
       </c>
     </row>
@@ -8161,7 +8176,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -8171,7 +8186,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Matthias Duddek / Manfred Grell / Michael Bock / Markus Muench</t>
+          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
         </is>
       </c>
     </row>
@@ -8211,7 +8226,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -8221,7 +8236,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
+          <t>Jens Hafner / Arndt Stuber</t>
         </is>
       </c>
     </row>
@@ -8236,7 +8251,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -8246,7 +8261,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Jens Hafner / Arndt Stuber</t>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8276,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -8271,7 +8286,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Frank Petermann / Torsten Bartel</t>
+          <t>Patrick Buehrsch / Liam Wilde</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8301,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -8296,7 +8311,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Patrick Buehrsch / Liam Wilde</t>
+          <t>Frank Petermann / Torsten Bartel</t>
         </is>
       </c>
     </row>
@@ -8361,17 +8376,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ralf Colditz / Karsten Usinger / Sebastian Braune / Tobias Kahl</t>
+          <t>Thomas Gruneberg / Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -8411,17 +8426,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Heiko Thomsen</t>
+          <t>Ralf Colditz / Karsten Usinger / Sebastian Braune / Tobias Kahl</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8451,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -8446,7 +8461,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
+          <t>Frank Koller / Lorenz Kramp</t>
         </is>
       </c>
     </row>
@@ -8461,7 +8476,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -8471,7 +8486,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Frank Koller / Lorenz Kramp</t>
+          <t>Wolfgang Aleksik / Bernd Sotzek</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8601,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -8596,7 +8611,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Manfred Grell / Markus Muench / Sebastian Braune / Lorenz Kramp</t>
+          <t>Matthias Duddek / Jens Krause / Ralf Colditz / Michael Bock</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8626,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -8621,7 +8636,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Matthias Duddek / Jens Krause / Ralf Colditz / Michael Bock</t>
+          <t>Manfred Grell / Markus Muench / Sebastian Braune / Lorenz Kramp</t>
         </is>
       </c>
     </row>
@@ -8661,7 +8676,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -8671,7 +8686,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Bernd Sotzek / Arndt Stuber</t>
+          <t>Jurgen Hansen / Jorg Peters</t>
         </is>
       </c>
     </row>
@@ -8686,7 +8701,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -8696,7 +8711,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
+          <t>Bernd Sotzek / Arndt Stuber</t>
         </is>
       </c>
     </row>
@@ -8836,17 +8851,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Jens Krause / Jan Pappenheim / Sebastian Braune / Jens Hafner</t>
+          <t>Kai Schroder / Oliver Boss</t>
         </is>
       </c>
     </row>
@@ -8861,17 +8876,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Tobias Kahl / Heiko Thomsen</t>
+          <t>Jens Krause / Jan Pappenheim / Sebastian Braune / Jens Hafner</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8926,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -8921,7 +8936,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Kai Schroder / Oliver Boss</t>
+          <t>Tobias Kahl / Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8951,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -8946,7 +8961,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Frank Petermann / Frank Koller</t>
+          <t>Manfred Grell / Liam Wilde</t>
         </is>
       </c>
     </row>
@@ -8961,7 +8976,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -8971,7 +8986,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Manfred Grell / Liam Wilde</t>
+          <t>Frank Petermann / Frank Koller</t>
         </is>
       </c>
     </row>
@@ -9061,17 +9076,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Jurgen Hansen / Bernd Robioneck / Ralf Colditz / Michael Bock</t>
+          <t>Thomas Gruneberg / Patrick Buehrsch</t>
         </is>
       </c>
     </row>
@@ -9086,17 +9101,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Patrick Buehrsch</t>
+          <t>Jurgen Hansen / Bernd Robioneck / Ralf Colditz / Michael Bock</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9176,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -9171,7 +9186,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Frank Petermann / Torsten Bartel</t>
+          <t>Lars Staubermann / Thomas Bretschneider</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9201,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -9196,7 +9211,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Lars Staubermann / Thomas Bretschneider</t>
+          <t>Torsten Bartel / Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9276,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E20:30-90 PLA</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -9271,7 +9286,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Jens Hafner</t>
+          <t>Manfred Grell / Oliver Boss</t>
         </is>
       </c>
     </row>
@@ -9286,7 +9301,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -9296,7 +9311,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Jens Krause / Bernd Sotzek</t>
+          <t>Thomas Gruneberg / Jens Hafner</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9326,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -9321,7 +9336,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Liam Wilde / Lorenz Kramp</t>
+          <t>Jens Krause / Bernd Sotzek</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9351,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>E20:30-90 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -9346,7 +9361,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Manfred Grell / Oliver Boss</t>
+          <t>Liam Wilde / Lorenz Kramp</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9386,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Frank Petermann / Lars Staubermann</t>
+          <t>Lars Staubermann / Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -9421,7 +9436,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Peter Plahn / MARTIN LANGE / Frank Petermann / Bjorn Junker</t>
+          <t>Peter Plahn / MARTIN LANGE / Kerstin Baarck / Bjorn Junker</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9526,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -9521,7 +9536,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Patrick Buehrsch / Bernd Sotzek</t>
+          <t>Jorg Peters / Jens Krause</t>
         </is>
       </c>
     </row>
@@ -9536,7 +9551,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -9546,7 +9561,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Jorg Peters / Jens Krause</t>
+          <t>Patrick Buehrsch / Bernd Sotzek</t>
         </is>
       </c>
     </row>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -93,7 +93,7 @@
       <color rgb="006B7280"/>
     </font>
   </fonts>
-  <fills count="61">
+  <fills count="62">
     <fill>
       <patternFill/>
     </fill>
@@ -450,6 +450,11 @@
         <fgColor rgb="001D4ED8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0014B8A6"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -744,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1289,6 +1294,8 @@
     <xf numFmtId="0" fontId="6" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1972,7 +1979,11 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="E4" s="204" t="inlineStr"/>
+      <c r="E4" s="209" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="F4" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
@@ -1993,44 +2004,41 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="L4" s="201" t="inlineStr">
+      <c r="L4" s="204" t="inlineStr"/>
+      <c r="N4" s="208" t="inlineStr"/>
+      <c r="Q4" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="W4" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="N4" s="206" t="inlineStr">
+      <c r="X4" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="Z4" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AK4" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AP4" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AQ4" s="206" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Q4" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="W4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X4" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="Z4" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AK4" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AP4" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2149,11 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="E7" s="204" t="inlineStr"/>
+      <c r="E7" s="209" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="F7" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
@@ -2157,21 +2169,18 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="N7" s="206" t="inlineStr">
+      <c r="K7" s="206" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
+      <c r="N7" s="208" t="inlineStr"/>
       <c r="Q7" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="S7" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="S7" s="204" t="inlineStr"/>
       <c r="W7" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
@@ -2319,29 +2328,30 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="L10" s="201" t="inlineStr">
+      <c r="L10" s="204" t="inlineStr"/>
+      <c r="P10" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="P10" s="201" t="inlineStr">
+      <c r="S10" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="T10" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="V10" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="W10" s="206" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="S10" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="T10" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="V10" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="AC10" s="201" t="inlineStr">
@@ -2644,44 +2654,45 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="E16" s="201" t="inlineStr">
+      <c r="E16" s="209" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F16" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="J16" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="L16" s="204" t="inlineStr"/>
+      <c r="P16" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="Q16" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="S16" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="T16" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="W16" s="206" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F16" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="J16" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="L16" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="P16" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Q16" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="S16" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="T16" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="Z16" s="201" t="inlineStr">
@@ -2810,6 +2821,11 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
+      <c r="E19" s="209" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="F19" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
@@ -2835,41 +2851,38 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="P19" s="201" t="inlineStr">
+      <c r="P19" s="204" t="inlineStr"/>
+      <c r="Q19" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="X19" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="Q19" s="196" t="inlineStr">
+      <c r="Z19" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AD19" s="206" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AG19" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="X19" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Z19" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AG19" s="196" t="inlineStr">
+      <c r="AP19" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AP19" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AQ19" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="AQ19" s="204" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3011,16 +3024,17 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
+      <c r="S22" s="206" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
       <c r="V22" s="201" t="inlineStr">
         <is>
           <t>E20:30-90 PLB</t>
         </is>
       </c>
-      <c r="X22" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="X22" s="204" t="inlineStr"/>
       <c r="AC22" s="201" t="inlineStr">
         <is>
           <t>E20:30-90 PLB</t>
@@ -3318,6 +3332,11 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
+      <c r="K28" s="206" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
       <c r="P28" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
@@ -3333,11 +3352,7 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="W28" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="W28" s="204" t="inlineStr"/>
       <c r="X28" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
@@ -3464,6 +3479,11 @@
           <t>D20:30-90 PLB</t>
         </is>
       </c>
+      <c r="E31" s="209" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="F31" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
@@ -3489,26 +3509,23 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="W31" s="201" t="inlineStr">
+      <c r="W31" s="204" t="inlineStr"/>
+      <c r="X31" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="Z31" s="206" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="X31" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
       <c r="AG31" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AK31" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="AK31" s="204" t="inlineStr"/>
       <c r="AO31" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
@@ -3620,71 +3637,72 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="E34" s="201" t="inlineStr">
+      <c r="E34" s="209" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="L34" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="P34" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="S34" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="T34" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="W34" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="Z34" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AB34" s="206" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="L34" s="196" t="inlineStr">
+      <c r="AD34" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AF34" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="P34" s="197" t="inlineStr">
+      <c r="AG34" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AJ34" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="S34" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="T34" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="W34" s="201" t="inlineStr">
+      <c r="AK34" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="Z34" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AD34" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AF34" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AG34" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AJ34" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AK34" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AO34" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="AO34" s="204" t="inlineStr"/>
       <c r="AQ34" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
@@ -3811,11 +3829,12 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="K37" s="201" t="inlineStr">
+      <c r="I37" s="206" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
+      <c r="K37" s="204" t="inlineStr"/>
       <c r="L37" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
@@ -3977,6 +3996,11 @@
           <t>D20:30-90 PLA</t>
         </is>
       </c>
+      <c r="X40" s="206" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
       <c r="Z40" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
@@ -4002,11 +4026,7 @@
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AJ40" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="AJ40" s="204" t="inlineStr"/>
       <c r="AO40" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
@@ -4310,19 +4330,20 @@
           <t>E20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AG46" s="201" t="inlineStr">
+      <c r="AG46" s="204" t="inlineStr"/>
+      <c r="AK46" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="AO46" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AP46" s="206" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AK46" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AO46" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4401,6 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr"/>
       <c r="Y48" s="195" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
@@ -4438,29 +4458,30 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="J49" s="201" t="inlineStr">
+      <c r="J49" s="204" t="inlineStr"/>
+      <c r="K49" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="L49" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="T49" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="V49" s="201" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="W49" s="206" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="K49" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="L49" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="T49" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="V49" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
         </is>
       </c>
       <c r="Z49" s="197" t="inlineStr">
@@ -6176,7 +6197,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6186,7 +6207,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
+          <t>Thomas Gruneberg / Frank Koller</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6222,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6211,7 +6232,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
+          <t>Jurgen Hansen / Jorg Peters</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6247,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6236,7 +6257,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jens Krause / Frank Koller</t>
+          <t>Bernd Robioneck</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6422,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -6411,7 +6432,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
+          <t>Thomas Gruneberg / Frank Koller</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6447,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -6436,7 +6457,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Jan Pappenheim / Frank Koller</t>
+          <t>Bernd Robioneck</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6657,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jens Krause / Ralf Colditz</t>
+          <t>Ralf Colditz</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7072,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7061,7 +7082,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Wolfgang Aleksik</t>
+          <t>Thomas Gruneberg / Ralf Colditz</t>
         </is>
       </c>
     </row>
@@ -7101,17 +7122,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Jens Krause / Ralf Colditz</t>
+          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stuber</t>
         </is>
       </c>
     </row>
@@ -7126,17 +7147,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stuber</t>
+          <t>Wolfgang Aleksik</t>
         </is>
       </c>
     </row>
@@ -7276,7 +7297,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -7286,7 +7307,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Jorg Peters / Jens Krause</t>
+          <t>Thomas Gruneberg / Markus Muench</t>
         </is>
       </c>
     </row>
@@ -7301,17 +7322,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stuber</t>
+          <t>Jorg Peters / Jens Krause</t>
         </is>
       </c>
     </row>
@@ -7326,17 +7347,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ralf Colditz / Markus Muench</t>
+          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stuber</t>
         </is>
       </c>
     </row>
@@ -7361,7 +7382,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
+          <t>Wolfgang Aleksik</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7532,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Markus Muench</t>
+          <t>Thomas Gruneberg</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7982,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Frank Koller</t>
+          <t>Thomas Gruneberg</t>
         </is>
       </c>
     </row>
@@ -8176,17 +8197,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
+          <t>Thomas Gruneberg / Bernd Sotzek</t>
         </is>
       </c>
     </row>
@@ -8201,17 +8222,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Frank Koller / Heiko Thomsen</t>
+          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
         </is>
       </c>
     </row>
@@ -8251,7 +8272,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -8261,7 +8282,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
+          <t>Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8397,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -8386,7 +8407,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Heiko Thomsen</t>
+          <t>Thomas Gruneberg / Wolfgang Aleksik</t>
         </is>
       </c>
     </row>
@@ -8476,7 +8497,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -8486,7 +8507,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
+          <t>Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -8661,7 +8682,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Patrick Buehrsch</t>
+          <t>Thomas Gruneberg</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8957,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Tobias Kahl / Heiko Thomsen</t>
+          <t>Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9332,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Jens Hafner</t>
+          <t>Thomas Gruneberg</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9532,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Kai Schroder</t>
+          <t>Thomas Gruneberg</t>
         </is>
       </c>
     </row>
@@ -9649,7 +9670,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="42" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
@@ -16511,7 +16532,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
@@ -16930,7 +16951,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -41146,7 +41167,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
   </cols>
@@ -41463,7 +41484,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -41608,7 +41629,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
@@ -42398,7 +42419,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -93,7 +93,7 @@
       <color rgb="006B7280"/>
     </font>
   </fonts>
-  <fills count="62">
+  <fills count="63">
     <fill>
       <patternFill/>
     </fill>
@@ -452,7 +452,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0014B8A6"/>
+        <fgColor rgb="00C4B5FD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006D28D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -1294,8 +1299,8 @@
     <xf numFmtId="0" fontId="6" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1969,46 +1974,50 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C4" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D4" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="E4" s="209" t="inlineStr">
+      <c r="C4" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D4" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E4" s="204" t="inlineStr"/>
+      <c r="F4" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="G4" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="I4" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="J4" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="L4" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="F4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="G4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="I4" s="201" t="inlineStr">
+      <c r="N4" s="206" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="J4" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="L4" s="204" t="inlineStr"/>
-      <c r="N4" s="208" t="inlineStr"/>
-      <c r="Q4" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
+      <c r="Q4" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="W4" s="201" t="inlineStr">
@@ -2016,29 +2025,24 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="X4" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="Z4" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AK4" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AP4" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AQ4" s="206" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
+      <c r="X4" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="Z4" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AK4" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AP4" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2139,56 +2143,55 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C7" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D7" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="E7" s="209" t="inlineStr">
+      <c r="C7" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D7" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E7" s="204" t="inlineStr"/>
+      <c r="F7" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="I7" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="J7" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="N7" s="206" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="Q7" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="S7" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="F7" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="I7" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="J7" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="K7" s="206" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="N7" s="208" t="inlineStr"/>
-      <c r="Q7" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="S7" s="204" t="inlineStr"/>
       <c r="W7" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="X7" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
+      <c r="X7" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AE7" s="201" t="inlineStr">
@@ -2201,14 +2204,14 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AK7" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AP7" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
+      <c r="AK7" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AP7" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2313,14 +2316,14 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="F10" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="J10" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
+      <c r="F10" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="J10" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="K10" s="201" t="inlineStr">
@@ -2328,20 +2331,24 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="L10" s="204" t="inlineStr"/>
+      <c r="L10" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
       <c r="P10" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="S10" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="T10" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="S10" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="T10" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="V10" s="201" t="inlineStr">
@@ -2349,34 +2356,29 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="W10" s="206" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
       <c r="AC10" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AD10" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AG10" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AK10" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AO10" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
+      <c r="AD10" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AG10" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AK10" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AO10" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2487,9 +2489,9 @@
         </is>
       </c>
       <c r="E13" s="204" t="inlineStr"/>
-      <c r="I13" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="I13" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="L13" s="201" t="inlineStr">
@@ -2502,24 +2504,24 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="P13" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="Q13" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="S13" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="T13" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
+      <c r="P13" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q13" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="S13" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="T13" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="V13" s="201" t="inlineStr">
@@ -2532,19 +2534,19 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AD13" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AE13" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AG13" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
+      <c r="AD13" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AE13" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AG13" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2644,75 +2646,74 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C16" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D16" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="E16" s="209" t="inlineStr">
+      <c r="C16" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D16" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E16" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F16" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="J16" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="L16" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="F16" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="J16" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="L16" s="204" t="inlineStr"/>
       <c r="P16" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="Q16" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="S16" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="T16" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="W16" s="206" t="inlineStr">
+      <c r="Q16" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="S16" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="T16" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="Z16" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="Z16" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AG16" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AP16" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AQ16" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="AG16" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AP16" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AQ16" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
     </row>
@@ -2811,50 +2812,49 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C19" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D19" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="E19" s="209" t="inlineStr">
+      <c r="C19" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D19" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="F19" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="G19" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="I19" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="J19" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="L19" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="P19" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="F19" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="G19" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="I19" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="J19" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="L19" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="P19" s="204" t="inlineStr"/>
-      <c r="Q19" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
+      <c r="Q19" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="X19" s="201" t="inlineStr">
@@ -2867,22 +2867,21 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AD19" s="206" t="inlineStr">
+      <c r="AG19" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AP19" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AQ19" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AG19" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AP19" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AQ19" s="204" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2979,14 +2978,14 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C22" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D22" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="C22" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D22" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="E22" s="201" t="inlineStr">
@@ -3004,9 +3003,9 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="J22" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="J22" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="L22" s="201" t="inlineStr">
@@ -3019,22 +3018,21 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="Q22" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="S22" s="206" t="inlineStr">
+      <c r="Q22" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="V22" s="201" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="X22" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="V22" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="X22" s="204" t="inlineStr"/>
       <c r="AC22" s="201" t="inlineStr">
         <is>
           <t>E20:30-90 PLB</t>
@@ -3136,24 +3134,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="D25" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="P25" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="S25" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="T25" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="D25" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="P25" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="S25" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="T25" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="W25" s="201" t="inlineStr">
@@ -3171,24 +3169,24 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AG25" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AH25" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AK25" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AN25" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="AG25" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AH25" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AK25" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AN25" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AO25" s="201" t="inlineStr">
@@ -3302,14 +3300,14 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C28" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D28" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="C28" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D28" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="E28" s="201" t="inlineStr">
@@ -3322,9 +3320,9 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="I28" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
+      <c r="I28" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="J28" s="201" t="inlineStr">
@@ -3332,35 +3330,34 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="K28" s="206" t="inlineStr">
+      <c r="P28" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="Q28" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="T28" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="W28" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="P28" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="Q28" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="T28" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="W28" s="204" t="inlineStr"/>
-      <c r="X28" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="Z28" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
+      <c r="X28" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Z28" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AK28" s="201" t="inlineStr">
@@ -3469,63 +3466,61 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C31" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D31" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="E31" s="209" t="inlineStr">
+      <c r="C31" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D31" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="F31" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="G31" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="J31" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q31" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="T31" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="W31" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="X31" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AG31" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="AK31" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="F31" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="G31" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="J31" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="Q31" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="T31" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="W31" s="204" t="inlineStr"/>
-      <c r="X31" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="Z31" s="206" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AG31" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AK31" s="204" t="inlineStr"/>
       <c r="AO31" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
@@ -3637,72 +3632,71 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="E34" s="209" t="inlineStr">
+      <c r="E34" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="L34" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="P34" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="S34" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="T34" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="W34" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="Z34" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="L34" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="P34" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="S34" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="T34" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="W34" s="201" t="inlineStr">
+      <c r="AD34" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AF34" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AG34" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AJ34" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AK34" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="Z34" s="201" t="inlineStr">
+      <c r="AO34" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AB34" s="206" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AD34" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AF34" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AG34" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AJ34" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AK34" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AO34" s="204" t="inlineStr"/>
       <c r="AQ34" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
@@ -3804,14 +3798,14 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C37" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D37" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="C37" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D37" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="E37" s="201" t="inlineStr">
@@ -3829,40 +3823,39 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="I37" s="206" t="inlineStr">
+      <c r="K37" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="K37" s="204" t="inlineStr"/>
-      <c r="L37" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="P37" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="Q37" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="X37" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AD37" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AK37" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="L37" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="P37" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="Q37" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="X37" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AD37" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AK37" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AO37" s="201" t="inlineStr">
@@ -3971,9 +3964,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="I40" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="I40" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="J40" s="201" t="inlineStr">
@@ -3981,60 +3974,59 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="L40" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="S40" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="T40" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="X40" s="206" t="inlineStr">
+      <c r="L40" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="S40" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="T40" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Z40" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AC40" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="AD40" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AE40" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AG40" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AJ40" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="Z40" s="201" t="inlineStr">
+      <c r="AO40" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AC40" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AD40" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AE40" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AG40" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AJ40" s="204" t="inlineStr"/>
-      <c r="AO40" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AP40" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="AP40" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AQ40" s="201" t="inlineStr">
@@ -4138,9 +4130,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C43" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="C43" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="E43" s="201" t="inlineStr">
@@ -4148,9 +4140,9 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="F43" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
+      <c r="F43" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="G43" s="201" t="inlineStr">
@@ -4158,9 +4150,9 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="I43" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
+      <c r="I43" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="J43" s="201" t="inlineStr">
@@ -4173,29 +4165,29 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="P43" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="Q43" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="T43" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="X43" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AE43" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="P43" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="Q43" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="T43" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="X43" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AE43" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AK43" s="201" t="inlineStr">
@@ -4330,7 +4322,11 @@
           <t>E20:30-90 PLA</t>
         </is>
       </c>
-      <c r="AG46" s="204" t="inlineStr"/>
+      <c r="AG46" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AK46" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
@@ -4339,11 +4335,6 @@
       <c r="AO46" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AP46" s="206" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
         </is>
       </c>
     </row>
@@ -4443,9 +4434,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="D49" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="D49" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="E49" s="201" t="inlineStr">
@@ -4458,7 +4449,11 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="J49" s="204" t="inlineStr"/>
+      <c r="J49" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
       <c r="K49" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
@@ -4469,9 +4464,9 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="T49" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="T49" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="V49" s="201" t="inlineStr">
@@ -4479,14 +4474,9 @@
           <t>E20:30-90 PLB</t>
         </is>
       </c>
-      <c r="W49" s="206" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Z49" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="Z49" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AC49" s="201" t="inlineStr">
@@ -4494,9 +4484,9 @@
           <t>E20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AK49" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
+      <c r="AK49" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AO49" s="201" t="inlineStr">
@@ -6147,7 +6137,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6172,7 +6162,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6197,7 +6187,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6207,7 +6197,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Frank Koller</t>
+          <t>Jurgen Hansen / Jorg Peters</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6212,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6232,7 +6222,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
+          <t>Bernd Robioneck / Frank Petermann</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6237,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6257,7 +6247,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bernd Robioneck</t>
+          <t>Jens Krause / Frank Koller</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6362,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6397,7 +6387,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -6422,7 +6412,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -6432,7 +6422,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Frank Koller</t>
+          <t>Bernd Robioneck / Frank Petermann</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6437,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -6457,7 +6447,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bernd Robioneck</t>
+          <t>Jan Pappenheim / Frank Koller</t>
         </is>
       </c>
     </row>
@@ -6622,7 +6612,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6657,7 +6647,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ralf Colditz</t>
+          <t>Jens Krause / Ralf Colditz</t>
         </is>
       </c>
     </row>
@@ -6672,7 +6662,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -6872,7 +6862,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6922,7 +6912,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -7047,7 +7037,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7072,7 +7062,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7082,7 +7072,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Ralf Colditz</t>
+          <t>Thomas Gruneberg / Wolfgang Aleksik</t>
         </is>
       </c>
     </row>
@@ -7122,17 +7112,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stuber</t>
+          <t>Jens Krause / Ralf Colditz</t>
         </is>
       </c>
     </row>
@@ -7147,17 +7137,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Wolfgang Aleksik</t>
+          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stuber</t>
         </is>
       </c>
     </row>
@@ -7272,7 +7262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -7297,7 +7287,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -7307,7 +7297,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Markus Muench</t>
+          <t>Jorg Peters / Jens Krause</t>
         </is>
       </c>
     </row>
@@ -7322,17 +7312,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Jorg Peters / Jens Krause</t>
+          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stuber</t>
         </is>
       </c>
     </row>
@@ -7347,17 +7337,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stuber</t>
+          <t>Ralf Colditz / Markus Muench</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7372,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Wolfgang Aleksik</t>
+          <t>Wolfgang Aleksik / Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7487,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7532,7 +7522,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg</t>
+          <t>Thomas Gruneberg / Markus Muench</t>
         </is>
       </c>
     </row>
@@ -7722,7 +7712,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -7747,7 +7737,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -7947,7 +7937,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -7982,7 +7972,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg</t>
+          <t>Thomas Gruneberg / Frank Koller</t>
         </is>
       </c>
     </row>
@@ -8022,7 +8012,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -8172,7 +8162,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -8197,17 +8187,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Bernd Sotzek</t>
+          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
         </is>
       </c>
     </row>
@@ -8222,17 +8212,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
+          <t>Frank Koller / Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -8272,7 +8262,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -8282,7 +8272,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Heiko Thomsen</t>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8387,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -8407,7 +8397,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Wolfgang Aleksik</t>
+          <t>Thomas Gruneberg / Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -8422,7 +8412,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -8447,7 +8437,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -8497,7 +8487,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -8507,7 +8497,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Heiko Thomsen</t>
+          <t>Wolfgang Aleksik / Bernd Sotzek</t>
         </is>
       </c>
     </row>
@@ -8622,7 +8612,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -8647,7 +8637,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -8682,7 +8672,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg</t>
+          <t>Thomas Gruneberg / Patrick Buehrsch</t>
         </is>
       </c>
     </row>
@@ -8847,7 +8837,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -8897,7 +8887,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -8957,7 +8947,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Heiko Thomsen</t>
+          <t>Tobias Kahl / Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -9072,7 +9062,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -9122,7 +9112,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -9332,7 +9322,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg</t>
+          <t>Thomas Gruneberg / Jens Hafner</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9487,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -9532,7 +9522,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg</t>
+          <t>Thomas Gruneberg / Kai Schroder</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9660,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="42" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
@@ -16532,7 +16522,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
@@ -16951,7 +16941,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -41167,7 +41157,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
   </cols>
@@ -41484,7 +41474,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -41629,7 +41619,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
@@ -42419,7 +42409,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -93,7 +93,7 @@
       <color rgb="006B7280"/>
     </font>
   </fonts>
-  <fills count="63">
+  <fills count="65">
     <fill>
       <patternFill/>
     </fill>
@@ -460,6 +460,16 @@
         <fgColor rgb="006D28D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0014B8A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006B7280"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -754,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1301,6 +1311,9 @@
     <xf numFmtId="0" fontId="1" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1984,65 +1997,67 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="E4" s="204" t="inlineStr"/>
-      <c r="F4" s="201" t="inlineStr">
+      <c r="E4" s="212" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F4" s="204" t="inlineStr"/>
+      <c r="G4" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="G4" s="201" t="inlineStr">
+      <c r="I4" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="J4" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="L4" s="204" t="inlineStr"/>
+      <c r="N4" s="210" t="inlineStr"/>
+      <c r="Q4" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="W4" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="X4" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="Z4" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AD4" s="212" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AK4" s="209" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AP4" s="208" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AQ4" s="211" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="I4" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="J4" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="L4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="N4" s="206" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Q4" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="W4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X4" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="Z4" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AK4" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AP4" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2168,11 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="E7" s="204" t="inlineStr"/>
+      <c r="E7" s="206" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
       <c r="F7" s="209" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
@@ -2169,11 +2188,7 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="N7" s="206" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="N7" s="210" t="inlineStr"/>
       <c r="Q7" s="208" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
@@ -2822,6 +2837,11 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
+      <c r="E19" s="211" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
       <c r="F19" s="209" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
@@ -2842,11 +2862,7 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="L19" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
+      <c r="L19" s="204" t="inlineStr"/>
       <c r="P19" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
@@ -3476,6 +3492,11 @@
           <t>D20:00-90 PLB</t>
         </is>
       </c>
+      <c r="E31" s="211" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="F31" s="209" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
@@ -3516,11 +3537,7 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AK31" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="AK31" s="204" t="inlineStr"/>
       <c r="AO31" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
@@ -6197,7 +6214,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
+          <t>Jorg Peters / Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6239,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
+          <t>Bernd Robioneck</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6264,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jens Krause / Frank Koller</t>
+          <t>Frank Koller</t>
         </is>
       </c>
     </row>
@@ -6422,7 +6439,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
+          <t>Thomas Gruneberg / Bernd Robioneck</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7314,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Jorg Peters / Jens Krause</t>
+          <t>Thomas Gruneberg / Jorg Peters</t>
         </is>
       </c>
     </row>
@@ -8187,17 +8204,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
+          <t>Thomas Gruneberg / Bernd Sotzek</t>
         </is>
       </c>
     </row>
@@ -8212,17 +8229,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Frank Koller / Heiko Thomsen</t>
+          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
         </is>
       </c>
     </row>
@@ -8237,7 +8254,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -8247,7 +8264,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Jens Hafner / Arndt Stuber</t>
+          <t>Frank Koller / Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -8262,7 +8279,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -8272,7 +8289,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
+          <t>Jens Hafner / Arndt Stuber</t>
         </is>
       </c>
     </row>
@@ -9660,7 +9677,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="42" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
@@ -16522,7 +16539,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
@@ -16941,7 +16958,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -41157,7 +41174,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
   </cols>
@@ -41474,7 +41491,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -41619,7 +41636,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
@@ -42409,7 +42426,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -6204,7 +6204,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jorg Peters / Heiko Thomsen</t>
+          <t>Thomas Gruneberg / Bernd Robioneck</t>
         </is>
       </c>
     </row>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bernd Robioneck</t>
+          <t>Jorg Peters / Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Frank Koller</t>
+          <t>Frank Koller / Sebastian Braune</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9677,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="42" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
@@ -16539,7 +16539,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
@@ -16958,7 +16958,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -41174,7 +41174,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
   </cols>
@@ -41491,7 +41491,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -41636,7 +41636,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
@@ -42426,7 +42426,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -93,7 +93,7 @@
       <color rgb="006B7280"/>
     </font>
   </fonts>
-  <fills count="65">
+  <fills count="62">
     <fill>
       <patternFill/>
     </fill>
@@ -452,22 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C4B5FD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006D28D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0014B8A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006B7280"/>
       </patternFill>
     </fill>
   </fills>
@@ -764,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1310,10 +1295,6 @@
     <xf numFmtId="0" fontId="6" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1987,78 +1968,75 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C4" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D4" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="C4" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D4" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="E4" s="204" t="inlineStr"/>
-      <c r="F4" s="204" t="inlineStr"/>
+      <c r="F4" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
       <c r="G4" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="I4" s="201" t="inlineStr">
+      <c r="I4" s="206" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="J4" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="L4" s="204" t="inlineStr"/>
-      <c r="N4" s="210" t="inlineStr"/>
-      <c r="Q4" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="V4" s="206" t="inlineStr">
+      <c r="J4" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="L4" s="208" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="N4" s="208" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="Q4" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="W4" s="206" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="W4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X4" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="Z4" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AD4" s="212" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AK4" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AP4" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AQ4" s="211" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
+      <c r="X4" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="Z4" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AK4" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AP4" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2159,20 +2137,20 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C7" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D7" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E7" s="210" t="inlineStr"/>
-      <c r="F7" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="C7" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D7" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="E7" s="204" t="inlineStr"/>
+      <c r="F7" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="I7" s="201" t="inlineStr">
@@ -2180,15 +2158,19 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="J7" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="N7" s="210" t="inlineStr"/>
-      <c r="Q7" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="J7" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="N7" s="206" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="Q7" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="S7" s="201" t="inlineStr">
@@ -2196,19 +2178,14 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="V7" s="206" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
       <c r="W7" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="X7" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="X7" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="AE7" s="201" t="inlineStr">
@@ -2221,14 +2198,14 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AK7" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AP7" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="AK7" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AP7" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2333,14 +2310,14 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="F10" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="J10" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="F10" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="J10" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="K10" s="201" t="inlineStr">
@@ -2358,14 +2335,14 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="S10" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="T10" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="S10" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="T10" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="V10" s="201" t="inlineStr">
@@ -2378,24 +2355,24 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AD10" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AG10" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AK10" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AO10" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="AD10" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AG10" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AK10" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AO10" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2506,9 +2483,9 @@
         </is>
       </c>
       <c r="E13" s="204" t="inlineStr"/>
-      <c r="I13" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="I13" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="L13" s="201" t="inlineStr">
@@ -2521,24 +2498,24 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="P13" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="Q13" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="S13" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="T13" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="P13" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q13" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="S13" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="T13" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="V13" s="201" t="inlineStr">
@@ -2551,19 +2528,19 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AD13" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AE13" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AG13" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="AD13" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AE13" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AG13" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2663,17 +2640,21 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C16" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D16" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E16" s="204" t="inlineStr"/>
+      <c r="C16" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D16" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="E16" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
       <c r="F16" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
@@ -2694,44 +2675,39 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="Q16" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="S16" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="T16" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="V16" s="206" t="inlineStr">
+      <c r="Q16" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="S16" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="T16" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="Z16" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="Z16" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AG16" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AP16" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AQ16" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="AG16" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AP16" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AQ16" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
     </row>
@@ -2830,50 +2806,49 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C19" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D19" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E19" s="211" t="inlineStr">
+      <c r="C19" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D19" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="F19" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="G19" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="F19" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="G19" s="201" t="inlineStr">
+      <c r="I19" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="J19" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="L19" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="I19" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="J19" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="L19" s="204" t="inlineStr"/>
       <c r="P19" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="Q19" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="Q19" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="X19" s="201" t="inlineStr">
@@ -2886,14 +2861,14 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AG19" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AP19" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="AG19" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AP19" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="AQ19" s="201" t="inlineStr">
@@ -2997,14 +2972,14 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C22" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D22" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="C22" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D22" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="E22" s="201" t="inlineStr">
@@ -3022,9 +2997,9 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="J22" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="J22" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="L22" s="201" t="inlineStr">
@@ -3037,9 +3012,9 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="Q22" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="Q22" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="V22" s="201" t="inlineStr">
@@ -3153,24 +3128,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="D25" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="P25" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="S25" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="T25" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="D25" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="P25" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="S25" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="T25" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="W25" s="201" t="inlineStr">
@@ -3188,24 +3163,24 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AG25" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AH25" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AK25" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AN25" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="AG25" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AH25" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AK25" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AN25" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="AO25" s="201" t="inlineStr">
@@ -3319,14 +3294,14 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C28" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D28" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="C28" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D28" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="E28" s="201" t="inlineStr">
@@ -3339,9 +3314,9 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="I28" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="I28" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="J28" s="201" t="inlineStr">
@@ -3349,19 +3324,19 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="P28" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="Q28" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="T28" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="P28" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="Q28" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="T28" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="W28" s="201" t="inlineStr">
@@ -3369,14 +3344,14 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="X28" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="Z28" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="X28" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="Z28" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="AK28" s="201" t="inlineStr">
@@ -3485,62 +3460,61 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C31" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D31" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="E31" s="211" t="inlineStr">
+      <c r="C31" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D31" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="F31" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="G31" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="J31" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q31" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="T31" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="W31" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="X31" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AG31" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="AK31" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="F31" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="G31" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="J31" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="Q31" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="T31" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="W31" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X31" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AG31" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AK31" s="204" t="inlineStr"/>
       <c r="AO31" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
@@ -3657,24 +3631,24 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="L34" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="P34" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="S34" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="T34" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="L34" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="P34" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="S34" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="T34" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="W34" s="201" t="inlineStr">
@@ -3687,24 +3661,24 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AD34" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AF34" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AG34" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AJ34" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="AD34" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AF34" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AG34" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AJ34" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="AK34" s="201" t="inlineStr">
@@ -3818,14 +3792,14 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C37" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D37" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="C37" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D37" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="E37" s="201" t="inlineStr">
@@ -3848,34 +3822,34 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="L37" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="P37" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="Q37" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="X37" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AD37" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AK37" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="L37" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="P37" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="Q37" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="X37" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AD37" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AK37" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="AO37" s="201" t="inlineStr">
@@ -3984,9 +3958,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="I40" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="I40" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="J40" s="201" t="inlineStr">
@@ -3994,19 +3968,19 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="L40" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="S40" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="T40" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="L40" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="S40" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="T40" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="Z40" s="201" t="inlineStr">
@@ -4019,19 +3993,19 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AD40" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AE40" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AG40" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="AD40" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AE40" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AG40" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="AJ40" s="201" t="inlineStr">
@@ -4044,9 +4018,9 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AP40" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="AP40" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="AQ40" s="201" t="inlineStr">
@@ -4150,9 +4124,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C43" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="C43" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="E43" s="201" t="inlineStr">
@@ -4160,9 +4134,9 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="F43" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="F43" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="G43" s="201" t="inlineStr">
@@ -4170,9 +4144,9 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="I43" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="I43" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="J43" s="201" t="inlineStr">
@@ -4185,29 +4159,29 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="P43" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="Q43" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="T43" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="X43" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AE43" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="P43" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="Q43" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="T43" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="X43" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="AE43" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="AK43" s="201" t="inlineStr">
@@ -4454,9 +4428,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="D49" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="D49" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="E49" s="201" t="inlineStr">
@@ -4484,9 +4458,9 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="T49" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="T49" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="V49" s="201" t="inlineStr">
@@ -4494,9 +4468,9 @@
           <t>E20:30-90 PLB</t>
         </is>
       </c>
-      <c r="Z49" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="Z49" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="AC49" s="201" t="inlineStr">
@@ -4504,9 +4478,9 @@
           <t>E20:30-90 PLB</t>
         </is>
       </c>
-      <c r="AK49" s="209" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="AK49" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="AO49" s="201" t="inlineStr">
@@ -6157,7 +6131,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6182,7 +6156,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6207,7 +6181,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6217,7 +6191,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Bernd Robioneck</t>
+          <t>Jurgen Hansen / Jorg Peters</t>
         </is>
       </c>
     </row>
@@ -6232,7 +6206,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6242,7 +6216,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jorg Peters / Heiko Thomsen</t>
+          <t>Bernd Robioneck / Frank Petermann</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6241,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Frank Koller / Sebastian Braune</t>
+          <t>Jens Krause / Frank Koller</t>
         </is>
       </c>
     </row>
@@ -6382,7 +6356,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6407,7 +6381,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -6442,7 +6416,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Bernd Robioneck</t>
+          <t>Bernd Robioneck / Frank Petermann</t>
         </is>
       </c>
     </row>
@@ -6632,7 +6606,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6682,7 +6656,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -6882,7 +6856,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6932,7 +6906,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -7057,7 +7031,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7157,7 +7131,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7282,7 +7256,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -7317,7 +7291,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Jorg Peters</t>
+          <t>Jorg Peters / Jens Krause</t>
         </is>
       </c>
     </row>
@@ -7332,7 +7306,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -7507,7 +7481,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7732,7 +7706,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -7757,7 +7731,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -7957,7 +7931,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -8032,7 +8006,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -8182,7 +8156,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -8207,17 +8181,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg / Bernd Sotzek</t>
+          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
         </is>
       </c>
     </row>
@@ -8232,17 +8206,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
+          <t>Frank Koller / Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -8257,7 +8231,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -8267,7 +8241,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Frank Koller / Heiko Thomsen</t>
+          <t>Jens Hafner / Arndt Stuber</t>
         </is>
       </c>
     </row>
@@ -8282,7 +8256,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -8292,7 +8266,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Jens Hafner / Arndt Stuber</t>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
         </is>
       </c>
     </row>
@@ -8432,7 +8406,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -8457,7 +8431,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -8632,7 +8606,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -8657,7 +8631,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -8857,7 +8831,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -8907,7 +8881,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -9082,7 +9056,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -9132,7 +9106,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -9507,7 +9481,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -41487,7 +41461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -41572,6 +41546,48 @@
         <is>
           <t>Kalender-Link</t>
         </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <f>IF($B$3="","",FILTER(Expanded!$B$2:$B$1048576, Expanded!$A$2:$A$1048576=$B$3, ""))</f>
+        <v/>
+      </c>
+      <c r="B6">
+        <f>IF($B$3="","",FILTER(Expanded!$C$2:$C$1048576, Expanded!$A$2:$A$1048576=$B$3, ""))</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>IF($B$3="","",FILTER(Expanded!$D$2:$D$1048576, Expanded!$A$2:$A$1048576=$B$3, ""))</f>
+        <v/>
+      </c>
+      <c r="D6">
+        <f>IF($B$3="","",FILTER(Expanded!$E$2:$E$1048576, Expanded!$A$2:$A$1048576=$B$3, ""))</f>
+        <v/>
+      </c>
+      <c r="E6">
+        <f>IF($B$3="","",FILTER(Expanded!$F$2:$F$1048576, Expanded!$A$2:$A$1048576=$B$3, ""))</f>
+        <v/>
+      </c>
+      <c r="F6">
+        <f>IF($B$3="","",FILTER(Expanded!$G$2:$G$1048576, Expanded!$A$2:$A$1048576=$B$3, ""))</f>
+        <v/>
+      </c>
+      <c r="G6">
+        <f>IF($B$3="","",FILTER(Expanded!$H$2:$H$1048576, Expanded!$A$2:$A$1048576=$B$3, ""))</f>
+        <v/>
+      </c>
+      <c r="H6">
+        <f>IF($B$3="","",FILTER(Expanded!$I$2:$I$1048576, Expanded!$A$2:$A$1048576=$B$3, ""))</f>
+        <v/>
+      </c>
+      <c r="I6">
+        <f>IF($B$3="","",FILTER(Expanded!$J$2:$J$1048576, Expanded!$A$2:$A$1048576=$B$3, ""))</f>
+        <v/>
+      </c>
+      <c r="J6">
+        <f>IF($B$3="","",FILTER(Expanded!$L$2:$L$1048576, Expanded!$A$2:$A$1048576=$B$3, ""))</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -3458,53 +3458,54 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C31" s="196" t="inlineStr">
+      <c r="C31" s="196" t="inlineStr"/>
+      <c r="D31" s="196" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="F31" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="G31" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="J31" s="197" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="D31" s="196" t="inlineStr">
+      <c r="Q31" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="F31" s="197" t="inlineStr">
+      <c r="T31" s="197" t="inlineStr">
         <is>
           <t>D20:30-90 PLA</t>
         </is>
       </c>
-      <c r="G31" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="J31" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="Q31" s="196" t="inlineStr">
+      <c r="W31" s="201" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="T31" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="W31" s="201" t="inlineStr">
+      <c r="X31" s="196" t="inlineStr">
         <is>
           <t>D20:30-90 PLB</t>
         </is>
       </c>
-      <c r="X31" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
       <c r="AE31" s="153" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AG31" s="201" t="inlineStr">
         <is>
@@ -3543,25 +3544,29 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K32" s="203" t="inlineStr">
+      <c r="K32" s="203" t="inlineStr"/>
+      <c r="N32" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="V32" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="N32" s="201" t="inlineStr">
+      <c r="AB32" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="V32" s="201" t="inlineStr">
+      <c r="AD32" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AB32" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
+      <c r="AF32" s="153" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="33">
@@ -9659,7 +9664,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="42" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
@@ -16521,7 +16526,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
@@ -16940,7 +16945,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -41156,7 +41161,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
   </cols>
@@ -41473,7 +41478,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -41618,7 +41623,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
@@ -42408,7 +42413,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -1672,7 +1672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW49"/>
+  <dimension ref="A1:AQ49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1964,16 +1964,18 @@
       </c>
       <c r="C4" s="196" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D4" s="153" t="n">
-        <v>14</v>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D4" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
       </c>
       <c r="E4" s="204" t="inlineStr"/>
       <c r="F4" s="201" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="G4" s="201" t="inlineStr">
@@ -1988,7 +1990,7 @@
       </c>
       <c r="J4" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="L4" s="201" t="inlineStr">
@@ -1998,12 +2000,12 @@
       </c>
       <c r="N4" s="206" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="Q4" s="196" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="W4" s="201" t="inlineStr">
@@ -2013,22 +2015,22 @@
       </c>
       <c r="X4" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="Z4" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AK4" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AP4" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2131,41 +2133,38 @@
       </c>
       <c r="C7" s="196" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D7" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="E7" s="204" t="inlineStr"/>
       <c r="F7" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="G7" s="153" t="n">
-        <v>14</v>
+          <t>D20:00-90 PLA</t>
+        </is>
       </c>
       <c r="I7" s="201" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="J7" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="N7" s="206" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="Q7" s="196" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="S7" s="201" t="inlineStr">
@@ -2180,7 +2179,7 @@
       </c>
       <c r="X7" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AE7" s="201" t="inlineStr">
@@ -2195,12 +2194,12 @@
       </c>
       <c r="AK7" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AP7" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2307,22 +2306,24 @@
       </c>
       <c r="F10" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="J10" s="153" t="n">
-        <v>11</v>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="J10" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
       </c>
       <c r="K10" s="201" t="inlineStr">
         <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="L10" s="201" t="inlineStr">
+        <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="L10" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
       <c r="P10" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
@@ -2330,12 +2331,12 @@
       </c>
       <c r="S10" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="T10" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="V10" s="201" t="inlineStr">
@@ -2350,22 +2351,22 @@
       </c>
       <c r="AD10" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AG10" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AK10" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AO10" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2468,7 @@
       </c>
       <c r="C13" s="201" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D13" s="201" t="inlineStr">
@@ -2478,7 +2479,7 @@
       <c r="E13" s="204" t="inlineStr"/>
       <c r="I13" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="L13" s="201" t="inlineStr">
@@ -2486,57 +2487,54 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="M13" s="153" t="n">
-        <v>14</v>
-      </c>
       <c r="N13" s="206" t="inlineStr">
         <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="P13" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q13" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="S13" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="T13" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="V13" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="X13" s="201" t="inlineStr">
+        <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="P13" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="Q13" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="S13" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="T13" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="V13" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X13" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
       <c r="AD13" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AE13" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AG13" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2638,19 +2636,19 @@
       </c>
       <c r="C16" s="197" t="inlineStr">
         <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D16" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E16" s="201" t="inlineStr">
+        <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="D16" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="E16" s="201" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
       <c r="F16" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
@@ -2666,22 +2664,24 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="P16" s="153" t="n">
-        <v>3</v>
+      <c r="P16" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
       </c>
       <c r="Q16" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="S16" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="T16" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="Z16" s="201" t="inlineStr">
@@ -2691,17 +2691,17 @@
       </c>
       <c r="AG16" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AP16" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AQ16" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
     </row>
@@ -2802,32 +2802,32 @@
       </c>
       <c r="C19" s="197" t="inlineStr">
         <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D19" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="F19" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="G19" s="201" t="inlineStr">
+        <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="D19" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="F19" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="G19" s="201" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
       <c r="I19" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="J19" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="L19" s="201" t="inlineStr">
@@ -2842,11 +2842,8 @@
       </c>
       <c r="Q19" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="S19" s="153" t="n">
-        <v>3</v>
+          <t>D20:00-90 PLB</t>
+        </is>
       </c>
       <c r="X19" s="201" t="inlineStr">
         <is>
@@ -2860,12 +2857,12 @@
       </c>
       <c r="AG19" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AP19" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AQ19" s="201" t="inlineStr">
@@ -2971,19 +2968,19 @@
       </c>
       <c r="C22" s="197" t="inlineStr">
         <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D22" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E22" s="201" t="inlineStr">
+        <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="D22" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="E22" s="201" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
       <c r="F22" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
@@ -2996,7 +2993,7 @@
       </c>
       <c r="J22" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="L22" s="201" t="inlineStr">
@@ -3011,11 +3008,13 @@
       </c>
       <c r="Q22" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="V22" s="153" t="n">
-        <v>3</v>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="V22" s="201" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
       </c>
       <c r="X22" s="201" t="inlineStr">
         <is>
@@ -3125,22 +3124,22 @@
       </c>
       <c r="D25" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="P25" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="S25" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="T25" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="W25" s="201" t="inlineStr">
@@ -3160,22 +3159,22 @@
       </c>
       <c r="AG25" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AH25" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AK25" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AN25" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AO25" s="201" t="inlineStr">
@@ -3291,19 +3290,19 @@
       </c>
       <c r="C28" s="197" t="inlineStr">
         <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D28" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E28" s="201" t="inlineStr">
+        <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="D28" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="E28" s="201" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
       <c r="F28" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
@@ -3311,7 +3310,7 @@
       </c>
       <c r="I28" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="J28" s="201" t="inlineStr">
@@ -3321,17 +3320,17 @@
       </c>
       <c r="P28" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="Q28" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="T28" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="W28" s="201" t="inlineStr">
@@ -3341,16 +3340,13 @@
       </c>
       <c r="X28" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="Z28" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AB28" s="153" t="n">
-        <v>3</v>
+          <t>D20:00-90 PLB</t>
+        </is>
       </c>
       <c r="AK28" s="201" t="inlineStr">
         <is>
@@ -3458,54 +3454,50 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C31" s="196" t="inlineStr"/>
+      <c r="C31" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="D31" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="F31" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="G31" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="J31" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q31" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="T31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="W31" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="Q31" s="196" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="T31" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="W31" s="201" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
       <c r="X31" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AE31" s="153" t="n">
-        <v>11</v>
+          <t>D20:00-90 PLB</t>
+        </is>
       </c>
       <c r="AG31" s="201" t="inlineStr">
         <is>
@@ -3544,7 +3536,11 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K32" s="203" t="inlineStr"/>
+      <c r="K32" s="203" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="N32" s="201" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
@@ -3559,14 +3555,6 @@
         <is>
           <t>E20:00-90 PLA</t>
         </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AF32" s="153" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="33">
@@ -3639,22 +3627,22 @@
       </c>
       <c r="L34" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="P34" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="S34" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="T34" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="W34" s="201" t="inlineStr">
@@ -3669,22 +3657,22 @@
       </c>
       <c r="AD34" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AF34" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AG34" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AJ34" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AK34" s="201" t="inlineStr">
@@ -3800,19 +3788,19 @@
       </c>
       <c r="C37" s="196" t="inlineStr">
         <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D37" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E37" s="201" t="inlineStr">
+        <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="D37" s="197" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="E37" s="201" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
       <c r="F37" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
@@ -3830,31 +3818,33 @@
       </c>
       <c r="L37" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="P37" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="Q37" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="X37" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AD37" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="AK37" s="153" t="n">
-        <v>3</v>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AK37" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
       </c>
       <c r="AO37" s="201" t="inlineStr">
         <is>
@@ -3964,7 +3954,7 @@
       </c>
       <c r="I40" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="J40" s="201" t="inlineStr">
@@ -3974,17 +3964,17 @@
       </c>
       <c r="L40" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="S40" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="T40" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="Z40" s="201" t="inlineStr">
@@ -3999,17 +3989,17 @@
       </c>
       <c r="AD40" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AE40" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AG40" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AJ40" s="201" t="inlineStr">
@@ -4024,7 +4014,7 @@
       </c>
       <c r="AP40" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AQ40" s="201" t="inlineStr">
@@ -4130,17 +4120,17 @@
       </c>
       <c r="C43" s="197" t="inlineStr">
         <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E43" s="201" t="inlineStr">
+        <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="E43" s="201" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
       <c r="F43" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="G43" s="201" t="inlineStr">
@@ -4150,7 +4140,7 @@
       </c>
       <c r="I43" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="J43" s="201" t="inlineStr">
@@ -4165,27 +4155,27 @@
       </c>
       <c r="P43" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="Q43" s="196" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="T43" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="X43" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AE43" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AK43" s="201" t="inlineStr">
@@ -4197,9 +4187,6 @@
         <is>
           <t>E19:00-60 PLA</t>
         </is>
-      </c>
-      <c r="AQ43" s="153" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -4437,37 +4424,37 @@
       </c>
       <c r="D49" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="E49" s="201" t="inlineStr">
         <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="G49" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="J49" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="K49" s="201" t="inlineStr">
+        <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="G49" s="201" t="inlineStr">
+      <c r="L49" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="J49" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="K49" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="L49" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
       <c r="T49" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="V49" s="201" t="inlineStr">
@@ -4477,7 +4464,7 @@
       </c>
       <c r="Z49" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AC49" s="201" t="inlineStr">
@@ -4487,16 +4474,13 @@
       </c>
       <c r="AK49" s="197" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="AO49" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
-      </c>
-      <c r="AW49" s="153" t="n">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -9664,7 +9648,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="42" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
@@ -16526,7 +16510,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
@@ -16945,7 +16929,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -41161,7 +41145,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
   </cols>
@@ -41478,7 +41462,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -41623,7 +41607,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
@@ -42413,7 +42397,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -6125,7 +6125,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -7925,7 +7925,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -8150,7 +8150,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -8600,7 +8600,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -8625,7 +8625,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -8825,7 +8825,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -8875,7 +8875,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -9050,7 +9050,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>D20:30-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -9475,7 +9475,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>D20:30-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -9648,7 +9648,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="42" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
@@ -16510,7 +16510,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
@@ -16929,7 +16929,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -41145,7 +41145,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
   </cols>
@@ -41462,7 +41462,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -41607,7 +41607,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
@@ -42397,7 +42397,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -744,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1289,6 +1289,8 @@
     <xf numFmtId="0" fontId="6" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2512,14 +2514,14 @@
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="V13" s="201" t="inlineStr">
+      <c r="V13" s="208" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="X13" s="208" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X13" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="AD13" s="197" t="inlineStr">
@@ -2966,54 +2968,54 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C22" s="197" t="inlineStr">
+      <c r="C22" s="209" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D22" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="D22" s="197" t="inlineStr">
+      <c r="E22" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F22" s="208" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="E22" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F22" s="201" t="inlineStr">
+      <c r="G22" s="208" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="J22" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="L22" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="P22" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="Q22" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="V22" s="208" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="G22" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="J22" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="L22" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="P22" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Q22" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="V22" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
         </is>
       </c>
       <c r="X22" s="201" t="inlineStr">
@@ -6125,7 +6127,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6150,7 +6152,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6350,7 +6352,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6375,7 +6377,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -6600,7 +6602,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6650,7 +6652,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -6850,7 +6852,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6900,7 +6902,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -7025,7 +7027,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7125,7 +7127,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7250,7 +7252,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -7300,7 +7302,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -7475,7 +7477,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7700,7 +7702,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -7725,7 +7727,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -7925,7 +7927,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -8000,7 +8002,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -8150,7 +8152,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -8175,7 +8177,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -8400,7 +8402,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -8425,7 +8427,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -8600,7 +8602,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -8625,7 +8627,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -8825,7 +8827,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -8875,7 +8877,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -9050,7 +9052,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -9100,7 +9102,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:30-90 PLB</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -9475,7 +9477,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:30-90 PLA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -1964,20 +1964,20 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C4" s="196" t="inlineStr">
+      <c r="C4" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D4" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E4" s="204" t="inlineStr"/>
+      <c r="F4" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D4" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E4" s="204" t="inlineStr"/>
-      <c r="F4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="G4" s="201" t="inlineStr">
@@ -2133,9 +2133,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C7" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="C7" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D7" s="197" t="inlineStr">
@@ -2169,9 +2169,9 @@
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="S7" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
+      <c r="S7" s="153" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="W7" s="201" t="inlineStr">
@@ -2636,24 +2636,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C16" s="197" t="inlineStr">
+      <c r="C16" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D16" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="D16" s="197" t="inlineStr">
+      <c r="E16" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F16" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E16" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F16" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="J16" s="201" t="inlineStr">
@@ -2802,24 +2802,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C19" s="197" t="inlineStr">
+      <c r="C19" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D19" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="D19" s="197" t="inlineStr">
+      <c r="F19" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="F19" s="197" t="inlineStr">
+      <c r="G19" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="G19" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="I19" s="196" t="inlineStr">
@@ -2988,9 +2988,9 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="G22" s="208" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
+      <c r="G22" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="J22" s="197" t="inlineStr">
@@ -3023,9 +3023,9 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AC22" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
+      <c r="AC22" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -3290,24 +3290,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C28" s="197" t="inlineStr">
+      <c r="C28" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D28" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="D28" s="197" t="inlineStr">
+      <c r="E28" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F28" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E28" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F28" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="I28" s="196" t="inlineStr">
@@ -3456,54 +3456,54 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C31" s="196" t="inlineStr">
+      <c r="C31" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D31" s="196" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="D31" s="196" t="inlineStr">
+      <c r="F31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="G31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="J31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q31" s="196" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="F31" s="197" t="inlineStr">
+      <c r="T31" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="G31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="J31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="Q31" s="196" t="inlineStr">
+      <c r="W31" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="X31" s="196" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="T31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="W31" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X31" s="196" t="inlineStr">
+      <c r="AG31" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AG31" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="AK31" s="201" t="inlineStr">
@@ -3788,24 +3788,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C37" s="196" t="inlineStr">
+      <c r="C37" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D37" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E37" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F37" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D37" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E37" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F37" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="G37" s="201" t="inlineStr">
@@ -4120,24 +4120,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C43" s="197" t="inlineStr">
+      <c r="C43" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="E43" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F43" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="G43" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E43" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F43" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="G43" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="I43" s="196" t="inlineStr">
@@ -4287,9 +4287,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="D46" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLA</t>
+      <c r="D46" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="E46" s="201" t="inlineStr">
@@ -4307,9 +4307,9 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AC46" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLA</t>
+      <c r="AC46" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="AG46" s="201" t="inlineStr">
@@ -4459,9 +4459,9 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="V49" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
+      <c r="V49" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="Z49" s="197" t="inlineStr">
@@ -4469,9 +4469,9 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AC49" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
+      <c r="AC49" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="AK49" s="197" t="inlineStr">

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -19,8 +19,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ABO Platzkosten" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wochenübersicht" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sanity Check" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spielplan" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Konflikte" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Konflikte" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spielplan" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6031,7 +6031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6057,3537 +6057,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Typ</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Spieler</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="202" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="202" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Jan Pappenheim / Kerstin Baarck / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Kai Schroder / Wolfgang Aleksik / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="202" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="202" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="202" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Peter Plahn / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="202" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Sebastian Braune / Tobias Kahl / Lena Meiß / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jurgen Hansen / Kai Schroder / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Gunnar Brix / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="202" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Frank Koller / Andreas Dank</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="202" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="202" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Jorg Peters / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="202" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Kai Schroder / Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Sebastian Braune / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="202" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="202" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="202" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Peter Plahn / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="202" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Anke Ihde / Tobias Kahl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Sebastian Braune</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Gunnar Brix / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="202" t="n">
-        <v>45939</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="202" t="n">
-        <v>45939</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Oliver Boss / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="202" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="202" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Michael Bock / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Wolfgang Aleksik</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="202" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="202" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="202" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="202" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Jan Pappenheim / Tobias Kahl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Jurgen Hansen / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Jens Krause</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="202" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="202" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="202" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="202" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Andreas Dank / Tobias Kahl / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Kai Schroder / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="202" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="202" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="202" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="202" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jan Pappenheim / Jens Hafner / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Karsten Usinger / Anke Ihde / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Frank Koller / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Markus Muench / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="202" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="202" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="202" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Peter Plahn / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="202" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Karsten Usinger / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Wolfgang Aleksik</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="202" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Carsten Gambal</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="202" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="202" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="202" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Sebastian Braune / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Michael Bock / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Frank Koller / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Jens Hafner / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="202" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="202" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="202" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="202" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Jens Krause / Jan Pappenheim / Andreas Dank / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Karsten Usinger / Sebastian Braune / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Frank Koller / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="202" t="n">
-        <v>45988</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="202" t="n">
-        <v>45988</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="202" t="n">
-        <v>45992</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="202" t="n">
-        <v>45992</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Carsten Gambal / Gunnar Brix / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Jens Krause / Ralf Colditz / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Markus Muench / Sebastian Braune / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Bernd Sotzek / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="202" t="n">
-        <v>45995</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Karsten Usinger</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="202" t="n">
-        <v>45995</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="202" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="202" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Karsten Usinger / Gunnar Brix / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Kai Schroder / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Jens Krause / Jan Pappenheim / Sebastian Braune / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Tobias Kahl / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="202" t="n">
-        <v>46002</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="202" t="n">
-        <v>46002</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="202" t="n">
-        <v>46006</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="202" t="n">
-        <v>46006</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Sebastian Braune / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Karsten Usinger / Markus Muench / Gunnar Brix</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Bernd Robioneck / Ralf Colditz / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Kai Schroder / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="202" t="n">
-        <v>46009</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="202" t="n">
-        <v>46009</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="202" t="n">
-        <v>46013</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="202" t="n">
-        <v>46013</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Jens Krause / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="202" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="202" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Andreas Dank</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="202" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Kerstin Baarck / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="202" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Torsten Bartel / Andreas Dank / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Karsten Usinger / Wolfgang Aleksik / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Jens Krause</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Boss</t>
+          <t>Grund</t>
         </is>
       </c>
     </row>
@@ -9602,7 +6072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9628,7 +6098,3537 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Grund</t>
+          <t>Typ</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Spieler</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="202" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="202" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Jan Pappenheim / Kerstin Baarck / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Jörg Peters</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Kai Schröder / Wolfgang Aleksik / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen / Michael Bock / Markus Muench / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="202" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="202" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="202" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Peter Plähn / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="202" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sebastian Braune / Tobias Kahl / Lena Meiß / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Gunnar Brix / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jürgen Hansen / Kai Schröder / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Michael Bock / Jan Pappenheim / Markus Muench / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="202" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Frank Koller / Andreas Dank</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="202" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="202" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Jörg Peters / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="202" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen / Kai Schröder / Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Sebastian Braune / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="202" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="202" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="202" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Peter Plähn / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="202" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Anke Ihde / Tobias Kahl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Sebastian Braune</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Gunnar Brix / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="202" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="202" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Oliver Böss / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="202" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="202" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Wolfgang Aleksik</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Kai Schröder</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jürgen Hansen / Michael Bock / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="202" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="202" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="202" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="202" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Jan Pappenheim / Tobias Kahl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Jens Krause</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jürgen Hansen / Jörg Peters / Kai Schröder</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="202" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="202" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="202" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="202" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Andreas Dank / Tobias Kahl / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jürgen Hansen / Kai Schröder / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="202" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="202" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="202" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="202" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Frank Koller / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Markus Muench / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jan Pappenheim / Jens Hafner / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Karsten Usinger / Anke Ihde / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="202" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="202" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="202" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Peter Plähn / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="202" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Kai Schröder</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jürgen Hansen / Karsten Usinger / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Wolfgang Aleksik</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="202" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Carsten Gambal</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="202" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="202" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="202" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Sebastian Braune / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Frank Koller / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Michael Bock / Markus Muench / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen / Jörg Peters / Kai Schröder / Karsten Usinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="202" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="202" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="202" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="202" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Frank Koller / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Jens Krause / Jan Pappenheim / Andreas Dank / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Karsten Usinger / Sebastian Braune / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="202" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="202" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="202" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="202" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Carsten Gambal / Gunnar Brix / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Jörg Peters</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Bernd Sotzek / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Markus Muench / Sebastian Braune / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen / Jens Krause / Ralf Colditz / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="202" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Karsten Usinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="202" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="202" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="202" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Tobias Kahl / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Kai Schröder / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Karsten Usinger / Gunnar Brix / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Jens Krause / Jan Pappenheim / Sebastian Braune / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="202" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="202" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="202" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="202" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Sebastian Braune / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Kai Schröder / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen / Bernd Robioneck / Ralf Colditz / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Karsten Usinger / Markus Muench / Gunnar Brix</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="202" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="202" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="202" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="202" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Jens Krause / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="202" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="202" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Andreas Dank</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="202" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Kerstin Baarck / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="202" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Torsten Bartel / Andreas Dank / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Kai Schröder</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Jens Krause</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Karsten Usinger / Wolfgang Aleksik / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Oliver Böss</t>
         </is>
       </c>
     </row>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -19,8 +19,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ABO Platzkosten" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wochenübersicht" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sanity Check" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Konflikte" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spielplan" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spielplan" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Konflikte" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1980,29 +1980,29 @@
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="G4" s="201" t="inlineStr">
+      <c r="G4" s="208" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="I4" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="J4" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="L4" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="N4" s="208" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="I4" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="J4" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="L4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="N4" s="206" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="Q4" s="196" t="inlineStr">
@@ -2159,24 +2159,24 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="N7" s="206" t="inlineStr">
+      <c r="N7" s="208" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="Q7" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="S7" s="153" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="W7" s="208" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Q7" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="S7" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="W7" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="X7" s="196" t="inlineStr">
@@ -2489,34 +2489,34 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="N13" s="206" t="inlineStr">
+      <c r="N13" s="208" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="P13" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q13" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="S13" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="T13" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="V13" s="208" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="P13" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="Q13" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="S13" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="T13" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="V13" s="208" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="X13" s="208" t="inlineStr">
@@ -6031,7 +6031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6057,7 +6057,3537 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Grund</t>
+          <t>Typ</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Spieler</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="202" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="202" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Jan Pappenheim / Kerstin Baarck / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Kai Schroder / Wolfgang Aleksik / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Jorg Peters</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="202" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="202" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="202" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Peter Plahn / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="202" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sebastian Braune / Tobias Kahl / Lena Meiß / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jurgen Hansen / Kai Schroder / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Gunnar Brix / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="202" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Frank Koller / Andreas Dank</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="202" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="202" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Jorg Peters / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="202" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Kai Schroder / Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Sebastian Braune / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="202" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="202" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="202" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Jorg Peters / Peter Plahn / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="202" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Anke Ihde / Tobias Kahl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Sebastian Braune</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Gunnar Brix / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="202" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="202" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Oliver Boss / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="202" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="202" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Manfred Grell / Michael Bock / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Wolfgang Aleksik</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Kai Schroder</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="202" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="202" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="202" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="202" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Jan Pappenheim / Tobias Kahl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Manfred Grell / Jurgen Hansen / Kai Schroder</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Jorg Peters / Jens Krause</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="202" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="202" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="202" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="202" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Andreas Dank / Tobias Kahl / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Manfred Grell / Kai Schroder / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Jorg Peters</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="202" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="202" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="202" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="202" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jan Pappenheim / Jens Hafner / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Karsten Usinger / Anke Ihde / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Frank Koller / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Markus Muench / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="202" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="202" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="202" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Jorg Peters / Peter Plahn / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="202" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Manfred Grell / Karsten Usinger / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Kai Schroder</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Wolfgang Aleksik</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="202" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Carsten Gambal</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="202" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="202" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="202" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Sebastian Braune / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Manfred Grell / Michael Bock / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Frank Koller / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Jens Hafner / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="202" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="202" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="202" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="202" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Jens Krause / Jan Pappenheim / Andreas Dank / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Karsten Usinger / Sebastian Braune / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Frank Koller / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="202" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="202" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="202" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="202" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Carsten Gambal / Gunnar Brix / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Jens Krause / Ralf Colditz / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Markus Muench / Sebastian Braune / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Jorg Peters</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Bernd Sotzek / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="202" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Karsten Usinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="202" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="202" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="202" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Karsten Usinger / Gunnar Brix / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Kai Schroder / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Jens Krause / Jan Pappenheim / Sebastian Braune / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Tobias Kahl / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="202" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="202" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="202" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="202" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Sebastian Braune / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Karsten Usinger / Markus Muench / Gunnar Brix</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Bernd Robioneck / Ralf Colditz / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Jorg Peters / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Kai Schroder / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="202" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="202" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="202" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="202" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Jens Krause / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="202" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="202" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Andreas Dank</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="202" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Kerstin Baarck / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="202" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Torsten Bartel / Andreas Dank / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Karsten Usinger / Wolfgang Aleksik / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Kai Schroder</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Jorg Peters / Jens Krause</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Oliver Boss</t>
         </is>
       </c>
     </row>
@@ -6072,7 +9602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6098,3537 +9628,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Typ</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Spieler</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="202" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="202" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Jan Pappenheim / Kerstin Baarck / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Jörg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Kai Schröder / Wolfgang Aleksik / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen / Michael Bock / Markus Muench / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="202" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="202" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="202" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Peter Plähn / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="202" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Sebastian Braune / Tobias Kahl / Lena Meiß / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Gunnar Brix / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jürgen Hansen / Kai Schröder / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Michael Bock / Jan Pappenheim / Markus Muench / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="202" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Frank Koller / Andreas Dank</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="202" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="202" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Jörg Peters / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="202" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen / Kai Schröder / Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Sebastian Braune / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="202" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="202" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="202" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Jörg Peters / Peter Plähn / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="202" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Anke Ihde / Tobias Kahl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Sebastian Braune</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Gunnar Brix / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="202" t="n">
-        <v>45939</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="202" t="n">
-        <v>45939</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Oliver Böss / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="202" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="202" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Wolfgang Aleksik</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Kai Schröder</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jürgen Hansen / Michael Bock / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="202" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="202" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="202" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="202" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Jan Pappenheim / Tobias Kahl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Jens Krause</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jürgen Hansen / Jörg Peters / Kai Schröder</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="202" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="202" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="202" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="202" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Andreas Dank / Tobias Kahl / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jürgen Hansen / Kai Schröder / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Jörg Peters / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="202" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="202" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="202" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="202" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Frank Koller / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Markus Muench / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jan Pappenheim / Jens Hafner / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Karsten Usinger / Anke Ihde / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="202" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="202" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="202" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Jörg Peters / Peter Plähn / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="202" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Kai Schröder</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jürgen Hansen / Karsten Usinger / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Wolfgang Aleksik</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="202" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Carsten Gambal</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="202" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="202" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="202" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Sebastian Braune / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Frank Koller / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Michael Bock / Markus Muench / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen / Jörg Peters / Kai Schröder / Karsten Usinger</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="202" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="202" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="202" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="202" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Frank Koller / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Jens Krause / Jan Pappenheim / Andreas Dank / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Karsten Usinger / Sebastian Braune / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="202" t="n">
-        <v>45988</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="202" t="n">
-        <v>45988</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="202" t="n">
-        <v>45992</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="202" t="n">
-        <v>45992</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Carsten Gambal / Gunnar Brix / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Jörg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Bernd Sotzek / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Markus Muench / Sebastian Braune / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen / Jens Krause / Ralf Colditz / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="202" t="n">
-        <v>45995</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Karsten Usinger</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="202" t="n">
-        <v>45995</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="202" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="202" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Tobias Kahl / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Kai Schröder / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Karsten Usinger / Gunnar Brix / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Jens Krause / Jan Pappenheim / Sebastian Braune / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="202" t="n">
-        <v>46002</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="202" t="n">
-        <v>46002</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="202" t="n">
-        <v>46006</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="202" t="n">
-        <v>46006</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Sebastian Braune / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Kai Schröder / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen / Bernd Robioneck / Ralf Colditz / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Jörg Peters / Karsten Usinger / Markus Muench / Gunnar Brix</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="202" t="n">
-        <v>46009</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="202" t="n">
-        <v>46009</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="202" t="n">
-        <v>46013</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="202" t="n">
-        <v>46013</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Jens Krause / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="202" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="202" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Andreas Dank</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="202" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Kerstin Baarck / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="202" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Torsten Bartel / Andreas Dank / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Kai Schröder</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Jörg Peters / Jens Krause</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Karsten Usinger / Wolfgang Aleksik / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Böss</t>
+          <t>Grund</t>
         </is>
       </c>
     </row>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -19,8 +19,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ABO Platzkosten" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wochenübersicht" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sanity Check" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spielplan" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Konflikte" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Konflikte" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spielplan" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6031,7 +6031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6057,3537 +6057,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Typ</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Spieler</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="202" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="202" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Jan Pappenheim / Kerstin Baarck / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Kai Schroder / Wolfgang Aleksik / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="202" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="202" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="202" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Peter Plahn / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="202" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Sebastian Braune / Tobias Kahl / Lena Meiß / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jurgen Hansen / Kai Schroder / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Gunnar Brix / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="202" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Frank Koller / Andreas Dank</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="202" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="202" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Jorg Peters / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="202" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Kai Schroder / Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Sebastian Braune / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="202" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="202" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="202" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Peter Plahn / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="202" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Anke Ihde / Tobias Kahl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Sebastian Braune</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Gunnar Brix / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="202" t="n">
-        <v>45939</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="202" t="n">
-        <v>45939</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Oliver Boss / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="202" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="202" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Michael Bock / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Wolfgang Aleksik</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="202" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="202" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="202" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="202" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Jan Pappenheim / Tobias Kahl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Jurgen Hansen / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Jens Krause</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="202" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="202" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="202" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="202" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Andreas Dank / Tobias Kahl / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Kai Schroder / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="202" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="202" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="202" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="202" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jan Pappenheim / Jens Hafner / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Karsten Usinger / Anke Ihde / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Frank Koller / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Markus Muench / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="202" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="202" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="202" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Peter Plahn / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="202" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Karsten Usinger / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Wolfgang Aleksik</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="202" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Carsten Gambal</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="202" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="202" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="202" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Sebastian Braune / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Michael Bock / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Frank Koller / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Jens Hafner / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="202" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="202" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="202" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="202" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Jens Krause / Jan Pappenheim / Andreas Dank / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Karsten Usinger / Sebastian Braune / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Frank Koller / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="202" t="n">
-        <v>45988</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="202" t="n">
-        <v>45988</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="202" t="n">
-        <v>45992</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="202" t="n">
-        <v>45992</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Carsten Gambal / Gunnar Brix / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Jens Krause / Ralf Colditz / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Markus Muench / Sebastian Braune / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Bernd Sotzek / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="202" t="n">
-        <v>45995</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Karsten Usinger</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="202" t="n">
-        <v>45995</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="202" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="202" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Karsten Usinger / Gunnar Brix / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Kai Schroder / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Jens Krause / Jan Pappenheim / Sebastian Braune / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Tobias Kahl / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="202" t="n">
-        <v>46002</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="202" t="n">
-        <v>46002</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="202" t="n">
-        <v>46006</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="202" t="n">
-        <v>46006</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Sebastian Braune / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Karsten Usinger / Markus Muench / Gunnar Brix</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Bernd Robioneck / Ralf Colditz / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Kai Schroder / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="202" t="n">
-        <v>46009</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="202" t="n">
-        <v>46009</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="202" t="n">
-        <v>46013</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="202" t="n">
-        <v>46013</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Jens Krause / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="202" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="202" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Andreas Dank</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="202" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Kerstin Baarck / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="202" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Torsten Bartel / Andreas Dank / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Karsten Usinger / Wolfgang Aleksik / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Jens Krause</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Boss</t>
+          <t>Grund</t>
         </is>
       </c>
     </row>
@@ -9602,7 +6072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9628,7 +6098,3537 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Grund</t>
+          <t>Typ</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Spieler</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="202" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="202" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Jan Pappenheim / Kerstin Baarck / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Bernd Robioneck</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Kai Schröder / Wolfgang Aleksik / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen / Michael Bock / Markus Muench / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="202" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="202" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="202" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Peter Plähn / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="202" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sebastian Braune / Tobias Kahl / Lena Meiß / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Gunnar Brix / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jürgen Hansen / Kai Schröder / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Michael Bock / Jan Pappenheim / Markus Muench / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="202" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Frank Koller / Andreas Dank</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="202" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="202" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Jörg Peters / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="202" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen / Kai Schröder / Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Sebastian Braune / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="202" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="202" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="202" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Peter Plähn / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="202" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Anke Ihde / Tobias Kahl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Jens Krause / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Sebastian Braune</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Gunnar Brix / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="202" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="202" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Oliver Böss / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="202" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="202" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Wolfgang Aleksik</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Kai Schröder</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jürgen Hansen / Michael Bock / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="202" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="202" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="202" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="202" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Jan Pappenheim / Tobias Kahl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Jens Krause</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jürgen Hansen / Jörg Peters / Kai Schröder</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="202" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="202" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="202" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="202" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Andreas Dank / Tobias Kahl / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jürgen Hansen / Kai Schröder / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="202" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="202" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="202" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="202" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Frank Koller / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Markus Muench / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jan Pappenheim / Jens Hafner / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Karsten Usinger / Anke Ihde / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="202" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="202" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="202" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Peter Plähn / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="202" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Kai Schröder</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jürgen Hansen / Karsten Usinger / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Wolfgang Aleksik</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="202" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Carsten Gambal</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="202" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="202" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="202" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Sebastian Braune / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Frank Koller / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Michael Bock / Markus Muench / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen / Jörg Peters / Kai Schröder / Karsten Usinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="202" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="202" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="202" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="202" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Frank Koller / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Jens Krause / Jan Pappenheim / Andreas Dank / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Karsten Usinger / Sebastian Braune / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="202" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="202" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="202" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="202" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Carsten Gambal / Gunnar Brix / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Jörg Peters</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Bernd Sotzek / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Markus Muench / Sebastian Braune / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen / Jens Krause / Ralf Colditz / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="202" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Karsten Usinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="202" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="202" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="202" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Tobias Kahl / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Kai Schröder / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Karsten Usinger / Gunnar Brix / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Jens Krause / Jan Pappenheim / Sebastian Braune / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="202" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="202" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="202" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="202" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Sebastian Braune / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Kai Schröder / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen / Bernd Robioneck / Ralf Colditz / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Karsten Usinger / Markus Muench / Gunnar Brix</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="202" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="202" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="202" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="202" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Jens Krause / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="202" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="202" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Andreas Dank</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="202" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Kerstin Baarck / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="202" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Torsten Bartel / Andreas Dank / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Kai Schröder</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Jens Krause</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Karsten Usinger / Wolfgang Aleksik / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Oliver Böss</t>
         </is>
       </c>
     </row>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -1980,29 +1980,29 @@
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="G4" s="208" t="inlineStr">
+      <c r="G4" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="I4" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="I4" s="201" t="inlineStr">
+      <c r="J4" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="L4" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="N4" s="206" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="J4" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="L4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="N4" s="208" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="Q4" s="196" t="inlineStr">
@@ -2048,15 +2048,15 @@
         </is>
       </c>
       <c r="G5" s="204" t="inlineStr"/>
-      <c r="K5" s="203" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="K5" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
       <c r="N5" s="204" t="inlineStr"/>
-      <c r="W5" s="203" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="W5" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
       <c r="AB5" s="203" t="inlineStr">
@@ -2159,24 +2159,24 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="N7" s="208" t="inlineStr">
+      <c r="N7" s="206" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="Q7" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="S7" s="153" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="W7" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Q7" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="S7" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="W7" s="208" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="X7" s="196" t="inlineStr">
@@ -2301,9 +2301,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="E10" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
+      <c r="E10" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLB</t>
         </is>
       </c>
       <c r="F10" s="196" t="inlineStr">
@@ -2316,9 +2316,9 @@
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="K10" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
+      <c r="K10" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLB</t>
         </is>
       </c>
       <c r="L10" s="201" t="inlineStr">
@@ -2489,34 +2489,34 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="N13" s="208" t="inlineStr">
+      <c r="N13" s="206" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="P13" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q13" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="S13" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="T13" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="V13" s="208" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="P13" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="Q13" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="S13" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="T13" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="V13" s="208" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="X13" s="208" t="inlineStr">
@@ -2718,9 +2718,9 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K17" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="K17" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
       <c r="N17" s="201" t="inlineStr">
@@ -2733,9 +2733,9 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AC17" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="AC17" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2884,9 +2884,9 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K20" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="K20" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
       <c r="N20" s="201" t="inlineStr">
@@ -2899,9 +2899,9 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AC20" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="AC20" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -3538,9 +3538,9 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K32" s="203" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="K32" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
       <c r="N32" s="201" t="inlineStr">
@@ -3548,9 +3548,9 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="V32" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="V32" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
       <c r="AB32" s="201" t="inlineStr">
@@ -4429,59 +4429,59 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="E49" s="201" t="inlineStr">
+      <c r="E49" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="G49" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="J49" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="K49" s="153" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="G49" s="201" t="inlineStr">
+      <c r="L49" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="J49" s="201" t="inlineStr">
+      <c r="T49" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="V49" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="Z49" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AC49" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AK49" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AO49" s="153" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="K49" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="L49" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="T49" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="V49" s="153" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="Z49" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AC49" s="153" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AK49" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AO49" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
         </is>
       </c>
     </row>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Jörg Peters / Bernd Robioneck</t>
+          <t>Bernd Robioneck / Frank Petermann</t>
         </is>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Matthias Duddek / Frank Petermann</t>
+          <t>Matthias Duddek / Jörg Peters</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bernd Robioneck / Frank Koller</t>
+          <t>Bernd Robioneck / Frank Petermann</t>
         </is>
       </c>
     </row>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Matthias Duddek / Frank Petermann</t>
+          <t>Matthias Duddek / Frank Koller</t>
         </is>
       </c>
     </row>
@@ -6853,7 +6853,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jens Krause / Liam Wilde</t>
+          <t>Jens Krause / Frank Petermann</t>
         </is>
       </c>
     </row>
@@ -6878,7 +6878,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Matthias Duddek / Frank Petermann</t>
+          <t>Matthias Duddek / Liam Wilde</t>
         </is>
       </c>
     </row>
@@ -9650,7 +9650,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="42" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
@@ -16512,7 +16512,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
@@ -16931,7 +16931,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -41147,7 +41147,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
   </cols>
@@ -41464,7 +41464,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -41609,7 +41609,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
@@ -42399,7 +42399,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -19,8 +19,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ABO Platzkosten" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wochenübersicht" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sanity Check" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Konflikte" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spielplan" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spielplan" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Konflikte" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -744,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1289,8 +1289,6 @@
     <xf numFmtId="0" fontId="6" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1964,20 +1962,20 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C4" s="153" t="inlineStr">
+      <c r="C4" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D4" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E4" s="204" t="inlineStr"/>
+      <c r="F4" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D4" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E4" s="204" t="inlineStr"/>
-      <c r="F4" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="G4" s="201" t="inlineStr">
@@ -2048,15 +2046,15 @@
         </is>
       </c>
       <c r="G5" s="204" t="inlineStr"/>
-      <c r="K5" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="K5" s="203" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="N5" s="204" t="inlineStr"/>
-      <c r="W5" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="W5" s="203" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="AB5" s="203" t="inlineStr">
@@ -2133,9 +2131,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C7" s="153" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
+      <c r="C7" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D7" s="197" t="inlineStr">
@@ -2169,9 +2167,9 @@
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="S7" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="S7" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="W7" s="201" t="inlineStr">
@@ -2301,9 +2299,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="E10" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLB</t>
+      <c r="E10" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="F10" s="196" t="inlineStr">
@@ -2316,9 +2314,9 @@
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="K10" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLB</t>
+      <c r="K10" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="L10" s="201" t="inlineStr">
@@ -2514,14 +2512,14 @@
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="V13" s="208" t="inlineStr">
+      <c r="V13" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="X13" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="X13" s="208" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="AD13" s="197" t="inlineStr">
@@ -2636,24 +2634,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C16" s="153" t="inlineStr">
+      <c r="C16" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D16" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E16" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F16" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D16" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E16" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F16" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="J16" s="201" t="inlineStr">
@@ -2718,9 +2716,9 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K17" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="K17" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="N17" s="201" t="inlineStr">
@@ -2733,9 +2731,9 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AC17" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="AC17" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2802,24 +2800,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C19" s="153" t="inlineStr">
+      <c r="C19" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D19" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="F19" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="G19" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D19" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="F19" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="G19" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="I19" s="196" t="inlineStr">
@@ -2884,9 +2882,9 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K20" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="K20" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="N20" s="201" t="inlineStr">
@@ -2899,9 +2897,9 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AC20" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="AC20" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2968,64 +2966,64 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C22" s="209" t="inlineStr">
+      <c r="C22" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D22" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E22" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F22" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="D22" s="197" t="inlineStr">
+      <c r="G22" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="J22" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="E22" s="201" t="inlineStr">
+      <c r="L22" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="P22" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="Q22" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="V22" s="201" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="X22" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="F22" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="G22" s="153" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="J22" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="L22" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="P22" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Q22" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="V22" s="208" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="X22" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AC22" s="153" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="AC22" s="201" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
         </is>
       </c>
     </row>
@@ -3290,24 +3288,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C28" s="153" t="inlineStr">
+      <c r="C28" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D28" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E28" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F28" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D28" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E28" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F28" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="I28" s="196" t="inlineStr">
@@ -3456,54 +3454,54 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C31" s="153" t="inlineStr">
+      <c r="C31" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D31" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="F31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="G31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="J31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q31" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="T31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="W31" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="X31" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AG31" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D31" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="F31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="G31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="J31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="Q31" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="T31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="W31" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X31" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AG31" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AK31" s="201" t="inlineStr">
@@ -3538,9 +3536,9 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K32" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="K32" s="203" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="N32" s="201" t="inlineStr">
@@ -3548,9 +3546,9 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="V32" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="V32" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="AB32" s="201" t="inlineStr">
@@ -3788,24 +3786,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C37" s="153" t="inlineStr">
+      <c r="C37" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D37" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E37" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F37" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D37" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E37" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F37" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="G37" s="201" t="inlineStr">
@@ -4120,24 +4118,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C43" s="153" t="inlineStr">
+      <c r="C43" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E43" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F43" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="G43" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="E43" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F43" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="G43" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="I43" s="196" t="inlineStr">
@@ -4287,9 +4285,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="D46" s="153" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
+      <c r="D46" s="201" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLA</t>
         </is>
       </c>
       <c r="E46" s="201" t="inlineStr">
@@ -4307,9 +4305,9 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AC46" s="153" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
+      <c r="AC46" s="201" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLA</t>
         </is>
       </c>
       <c r="AG46" s="201" t="inlineStr">
@@ -4429,59 +4427,59 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="E49" s="153" t="inlineStr">
+      <c r="E49" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="G49" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="J49" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="K49" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="G49" s="201" t="inlineStr">
+      <c r="L49" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="J49" s="153" t="inlineStr">
+      <c r="T49" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="V49" s="201" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="Z49" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AC49" s="201" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AK49" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AO49" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="K49" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="L49" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="T49" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="V49" s="153" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="Z49" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AC49" s="153" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AK49" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AO49" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6057,7 +6055,3537 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Grund</t>
+          <t>Typ</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Spieler</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="202" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="202" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Jan Pappenheim / Kerstin Baarck / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Kai Schroder / Wolfgang Aleksik / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Jorg Peters</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="202" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="202" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="202" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Peter Plahn / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="202" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sebastian Braune / Tobias Kahl / Lena Meiß / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jurgen Hansen / Kai Schroder / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Gunnar Brix / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="202" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Frank Koller / Andreas Dank</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="202" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="202" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Jorg Peters / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="202" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Kai Schroder / Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Sebastian Braune / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="202" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="202" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="202" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Jorg Peters / Peter Plahn / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="202" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Anke Ihde / Tobias Kahl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Sebastian Braune</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Gunnar Brix / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="202" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="202" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Oliver Boss / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="202" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="202" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Manfred Grell / Michael Bock / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Wolfgang Aleksik</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Kai Schroder</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="202" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="202" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="202" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="202" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Jan Pappenheim / Tobias Kahl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Manfred Grell / Jurgen Hansen / Kai Schroder</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Jorg Peters / Jens Krause</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="202" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="202" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="202" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="202" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Andreas Dank / Tobias Kahl / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Manfred Grell / Kai Schroder / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Jorg Peters</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="202" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="202" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="202" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="202" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jan Pappenheim / Jens Hafner / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Karsten Usinger / Anke Ihde / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Frank Koller / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Markus Muench / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="202" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="202" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="202" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Jorg Peters / Peter Plahn / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="202" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Manfred Grell / Karsten Usinger / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Kai Schroder</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Wolfgang Aleksik</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="202" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Carsten Gambal</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="202" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="202" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="202" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Sebastian Braune / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Manfred Grell / Michael Bock / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Frank Koller / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Jens Hafner / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="202" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="202" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="202" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="202" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Jens Krause / Jan Pappenheim / Andreas Dank / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Karsten Usinger / Sebastian Braune / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Frank Koller / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="202" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="202" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="202" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="202" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Carsten Gambal / Gunnar Brix / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Jens Krause / Ralf Colditz / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Markus Muench / Sebastian Braune / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Jorg Peters</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Bernd Sotzek / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="202" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Karsten Usinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="202" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="202" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="202" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Karsten Usinger / Gunnar Brix / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Kai Schroder / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Jens Krause / Jan Pappenheim / Sebastian Braune / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Tobias Kahl / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="202" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="202" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="202" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="202" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Sebastian Braune / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Karsten Usinger / Markus Muench / Gunnar Brix</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Bernd Robioneck / Ralf Colditz / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Jorg Peters / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Kai Schroder / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="202" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="202" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="202" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="202" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Jens Krause / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="202" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="202" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Andreas Dank</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="202" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Kerstin Baarck / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="202" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Torsten Bartel / Andreas Dank / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Karsten Usinger / Wolfgang Aleksik / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Kai Schroder</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Jorg Peters / Jens Krause</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Oliver Boss</t>
         </is>
       </c>
     </row>
@@ -6072,7 +9600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6098,3537 +9626,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Typ</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Spieler</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="202" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="202" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Jan Pappenheim / Kerstin Baarck / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Jörg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Kai Schröder / Wolfgang Aleksik / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen / Michael Bock / Markus Muench / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="202" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="202" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="202" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Peter Plähn / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="202" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Sebastian Braune / Tobias Kahl / Lena Meiß / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Gunnar Brix / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jürgen Hansen / Kai Schröder / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Michael Bock / Jan Pappenheim / Markus Muench / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="202" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Frank Koller / Andreas Dank</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="202" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="202" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Jörg Peters / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="202" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen / Kai Schröder / Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Sebastian Braune / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="202" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="202" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="202" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Jörg Peters / Peter Plähn / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="202" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Anke Ihde / Tobias Kahl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Sebastian Braune</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Gunnar Brix / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="202" t="n">
-        <v>45939</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="202" t="n">
-        <v>45939</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Oliver Böss / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="202" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="202" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Wolfgang Aleksik</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Kai Schröder</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jürgen Hansen / Michael Bock / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="202" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="202" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="202" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="202" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Jan Pappenheim / Tobias Kahl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Jens Krause</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jürgen Hansen / Jörg Peters / Kai Schröder</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="202" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="202" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="202" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="202" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Andreas Dank / Tobias Kahl / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jürgen Hansen / Kai Schröder / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Jörg Peters / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="202" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="202" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="202" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="202" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Frank Koller / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Markus Muench / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jan Pappenheim / Jens Hafner / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Karsten Usinger / Anke Ihde / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="202" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="202" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="202" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Jörg Peters / Peter Plähn / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="202" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Kai Schröder</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jürgen Hansen / Karsten Usinger / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Wolfgang Aleksik</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="202" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Carsten Gambal</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="202" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="202" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="202" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Sebastian Braune / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Frank Koller / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Michael Bock / Markus Muench / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen / Jörg Peters / Kai Schröder / Karsten Usinger</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="202" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="202" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="202" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="202" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Frank Koller / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Jens Krause / Jan Pappenheim / Andreas Dank / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Karsten Usinger / Sebastian Braune / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="202" t="n">
-        <v>45988</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="202" t="n">
-        <v>45988</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="202" t="n">
-        <v>45992</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="202" t="n">
-        <v>45992</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Carsten Gambal / Gunnar Brix / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Jörg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Bernd Sotzek / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Markus Muench / Sebastian Braune / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen / Jens Krause / Ralf Colditz / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="202" t="n">
-        <v>45995</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Karsten Usinger</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="202" t="n">
-        <v>45995</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="202" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="202" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Tobias Kahl / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Kai Schröder / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Karsten Usinger / Gunnar Brix / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Jens Krause / Jan Pappenheim / Sebastian Braune / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="202" t="n">
-        <v>46002</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="202" t="n">
-        <v>46002</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="202" t="n">
-        <v>46006</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="202" t="n">
-        <v>46006</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Sebastian Braune / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Kai Schröder / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen / Bernd Robioneck / Ralf Colditz / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Jörg Peters / Karsten Usinger / Markus Muench / Gunnar Brix</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="202" t="n">
-        <v>46009</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="202" t="n">
-        <v>46009</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="202" t="n">
-        <v>46013</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="202" t="n">
-        <v>46013</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Jens Krause / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="202" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="202" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Andreas Dank</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="202" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Kerstin Baarck / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="202" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Torsten Bartel / Andreas Dank / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Kai Schröder</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Jörg Peters / Jens Krause</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Karsten Usinger / Wolfgang Aleksik / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Böss</t>
+          <t>Grund</t>
         </is>
       </c>
     </row>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -19,8 +19,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ABO Platzkosten" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wochenübersicht" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sanity Check" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spielplan" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Konflikte" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Konflikte" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spielplan" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -744,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1289,6 +1289,8 @@
     <xf numFmtId="0" fontId="6" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1962,20 +1964,20 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C4" s="196" t="inlineStr">
+      <c r="C4" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D4" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E4" s="204" t="inlineStr"/>
+      <c r="F4" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D4" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E4" s="204" t="inlineStr"/>
-      <c r="F4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="G4" s="201" t="inlineStr">
@@ -2046,15 +2048,15 @@
         </is>
       </c>
       <c r="G5" s="204" t="inlineStr"/>
-      <c r="K5" s="203" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="K5" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
       <c r="N5" s="204" t="inlineStr"/>
-      <c r="W5" s="203" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="W5" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
       <c r="AB5" s="203" t="inlineStr">
@@ -2131,9 +2133,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C7" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="C7" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D7" s="197" t="inlineStr">
@@ -2167,9 +2169,9 @@
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="S7" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
+      <c r="S7" s="153" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="W7" s="201" t="inlineStr">
@@ -2299,9 +2301,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="E10" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
+      <c r="E10" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLB</t>
         </is>
       </c>
       <c r="F10" s="196" t="inlineStr">
@@ -2314,9 +2316,9 @@
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="K10" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
+      <c r="K10" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLB</t>
         </is>
       </c>
       <c r="L10" s="201" t="inlineStr">
@@ -2512,14 +2514,14 @@
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="V13" s="201" t="inlineStr">
+      <c r="V13" s="208" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="X13" s="208" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X13" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="AD13" s="197" t="inlineStr">
@@ -2634,24 +2636,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C16" s="197" t="inlineStr">
+      <c r="C16" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D16" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="D16" s="197" t="inlineStr">
+      <c r="E16" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F16" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E16" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F16" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="J16" s="201" t="inlineStr">
@@ -2716,9 +2718,9 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K17" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="K17" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
       <c r="N17" s="201" t="inlineStr">
@@ -2731,9 +2733,9 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AC17" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="AC17" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2800,24 +2802,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C19" s="197" t="inlineStr">
+      <c r="C19" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D19" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="D19" s="197" t="inlineStr">
+      <c r="F19" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="F19" s="197" t="inlineStr">
+      <c r="G19" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="G19" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="I19" s="196" t="inlineStr">
@@ -2882,9 +2884,9 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K20" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="K20" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
       <c r="N20" s="201" t="inlineStr">
@@ -2897,9 +2899,9 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AC20" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="AC20" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2966,64 +2968,64 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C22" s="197" t="inlineStr">
+      <c r="C22" s="209" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D22" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="D22" s="197" t="inlineStr">
+      <c r="E22" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F22" s="208" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="E22" s="201" t="inlineStr">
+      <c r="G22" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="J22" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="L22" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="P22" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="Q22" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="V22" s="208" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="X22" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="F22" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="G22" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="J22" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="L22" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="P22" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Q22" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="V22" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="X22" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AC22" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
+      <c r="AC22" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -3288,24 +3290,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C28" s="197" t="inlineStr">
+      <c r="C28" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D28" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="D28" s="197" t="inlineStr">
+      <c r="E28" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F28" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E28" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F28" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="I28" s="196" t="inlineStr">
@@ -3454,54 +3456,54 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C31" s="196" t="inlineStr">
+      <c r="C31" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D31" s="196" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="D31" s="196" t="inlineStr">
+      <c r="F31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="G31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="J31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q31" s="196" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="F31" s="197" t="inlineStr">
+      <c r="T31" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="G31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="J31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="Q31" s="196" t="inlineStr">
+      <c r="W31" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="X31" s="196" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="T31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="W31" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X31" s="196" t="inlineStr">
+      <c r="AG31" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AG31" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="AK31" s="201" t="inlineStr">
@@ -3536,9 +3538,9 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K32" s="203" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="K32" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
       <c r="N32" s="201" t="inlineStr">
@@ -3546,9 +3548,9 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="V32" s="201" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="V32" s="153" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLB</t>
         </is>
       </c>
       <c r="AB32" s="201" t="inlineStr">
@@ -3786,24 +3788,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C37" s="196" t="inlineStr">
+      <c r="C37" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D37" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E37" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F37" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D37" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E37" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F37" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="G37" s="201" t="inlineStr">
@@ -4118,24 +4120,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C43" s="197" t="inlineStr">
+      <c r="C43" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="E43" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F43" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="G43" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E43" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F43" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="G43" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="I43" s="196" t="inlineStr">
@@ -4285,9 +4287,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="D46" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLA</t>
+      <c r="D46" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="E46" s="201" t="inlineStr">
@@ -4305,9 +4307,9 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AC46" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLA</t>
+      <c r="AC46" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="AG46" s="201" t="inlineStr">
@@ -4427,59 +4429,59 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="E49" s="201" t="inlineStr">
+      <c r="E49" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="G49" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="J49" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="K49" s="153" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="G49" s="201" t="inlineStr">
+      <c r="L49" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="J49" s="201" t="inlineStr">
+      <c r="T49" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="V49" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="Z49" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AC49" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AK49" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AO49" s="153" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="K49" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="L49" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="T49" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="V49" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="Z49" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AC49" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AK49" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AO49" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6055,3537 +6057,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Typ</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Spieler</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="202" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="202" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Jan Pappenheim / Kerstin Baarck / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Kai Schroder / Wolfgang Aleksik / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="202" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="202" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="202" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Peter Plahn / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="202" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Sebastian Braune / Tobias Kahl / Lena Meiß / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jurgen Hansen / Kai Schroder / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Gunnar Brix / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="202" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Frank Koller / Andreas Dank</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="202" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="202" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Jorg Peters / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="202" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Kai Schroder / Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Sebastian Braune / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="202" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="202" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="202" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Peter Plahn / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="202" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Anke Ihde / Tobias Kahl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Sebastian Braune</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Gunnar Brix / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="202" t="n">
-        <v>45939</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="202" t="n">
-        <v>45939</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Oliver Boss / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="202" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="202" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Michael Bock / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Wolfgang Aleksik</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="202" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="202" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="202" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="202" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Jan Pappenheim / Tobias Kahl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Jurgen Hansen / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Jens Krause</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="202" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="202" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="202" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="202" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Andreas Dank / Tobias Kahl / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Kai Schroder / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="202" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="202" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="202" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="202" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jan Pappenheim / Jens Hafner / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Karsten Usinger / Anke Ihde / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Frank Koller / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Markus Muench / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="202" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="202" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="202" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Peter Plahn / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="202" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Karsten Usinger / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Wolfgang Aleksik</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="202" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Carsten Gambal</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="202" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="202" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="202" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Sebastian Braune / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Michael Bock / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Frank Koller / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Jens Hafner / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="202" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="202" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="202" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="202" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Jens Krause / Jan Pappenheim / Andreas Dank / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Karsten Usinger / Sebastian Braune / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Frank Koller / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="202" t="n">
-        <v>45988</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="202" t="n">
-        <v>45988</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="202" t="n">
-        <v>45992</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="202" t="n">
-        <v>45992</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Carsten Gambal / Gunnar Brix / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Jens Krause / Ralf Colditz / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Markus Muench / Sebastian Braune / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Bernd Sotzek / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="202" t="n">
-        <v>45995</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Karsten Usinger</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="202" t="n">
-        <v>45995</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="202" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="202" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Karsten Usinger / Gunnar Brix / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Kai Schroder / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Jens Krause / Jan Pappenheim / Sebastian Braune / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Tobias Kahl / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="202" t="n">
-        <v>46002</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="202" t="n">
-        <v>46002</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="202" t="n">
-        <v>46006</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="202" t="n">
-        <v>46006</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Sebastian Braune / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Karsten Usinger / Markus Muench / Gunnar Brix</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Bernd Robioneck / Ralf Colditz / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Kai Schroder / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="202" t="n">
-        <v>46009</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="202" t="n">
-        <v>46009</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="202" t="n">
-        <v>46013</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="202" t="n">
-        <v>46013</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Jens Krause / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="202" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="202" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Andreas Dank</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="202" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Kerstin Baarck / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="202" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Torsten Bartel / Andreas Dank / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Karsten Usinger / Wolfgang Aleksik / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Jens Krause</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Boss</t>
+          <t>Grund</t>
         </is>
       </c>
     </row>
@@ -9600,7 +6072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9626,7 +6098,3537 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Grund</t>
+          <t>Typ</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Spieler</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="202" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="202" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Jan Pappenheim / Kerstin Baarck / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Jörg Peters</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Kai Schröder / Wolfgang Aleksik / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen / Michael Bock / Markus Muench / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="202" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="202" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="202" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Peter Plähn / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="202" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sebastian Braune / Tobias Kahl / Lena Meiß / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Gunnar Brix / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jürgen Hansen / Kai Schröder / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Michael Bock / Jan Pappenheim / Markus Muench / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="202" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Frank Koller / Andreas Dank</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="202" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="202" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Jörg Peters / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="202" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen / Kai Schröder / Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Sebastian Braune / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="202" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="202" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="202" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Peter Plähn / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="202" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Anke Ihde / Tobias Kahl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Sebastian Braune</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Gunnar Brix / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="202" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="202" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Oliver Böss / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="202" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="202" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Wolfgang Aleksik</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Kai Schröder</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jürgen Hansen / Michael Bock / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="202" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="202" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="202" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="202" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Jan Pappenheim / Tobias Kahl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Jens Krause</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jürgen Hansen / Jörg Peters / Kai Schröder</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="202" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="202" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="202" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="202" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Andreas Dank / Tobias Kahl / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jürgen Hansen / Kai Schröder / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="202" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="202" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="202" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="202" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Frank Koller / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Markus Muench / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jan Pappenheim / Jens Hafner / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Karsten Usinger / Anke Ihde / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="202" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="202" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="202" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Peter Plähn / Lars Staubermann / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="202" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Kai Schröder</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jürgen Hansen / Karsten Usinger / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Wolfgang Aleksik</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="202" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Carsten Gambal</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="202" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="202" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="202" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Sebastian Braune / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Frank Koller / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Michael Bock / Markus Muench / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen / Jörg Peters / Kai Schröder / Karsten Usinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="202" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="202" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="202" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="202" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Frank Koller / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Jens Krause / Jan Pappenheim / Andreas Dank / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Karsten Usinger / Sebastian Braune / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="202" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="202" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="202" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="202" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Carsten Gambal / Gunnar Brix / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Jörg Peters</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Bernd Sotzek / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Markus Muench / Sebastian Braune / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen / Jens Krause / Ralf Colditz / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="202" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Karsten Usinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="202" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="202" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="202" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Tobias Kahl / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Kai Schröder / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Karsten Usinger / Gunnar Brix / Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Jens Krause / Jan Pappenheim / Sebastian Braune / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="202" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="202" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="202" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="202" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Sebastian Braune / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Kai Schröder / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen / Bernd Robioneck / Ralf Colditz / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Karsten Usinger / Markus Muench / Gunnar Brix</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="202" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="202" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="202" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="202" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Jens Krause / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="202" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="202" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Andreas Dank</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="202" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Peter Plähn / MARTIN LANGE / Kerstin Baarck / Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="202" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Torsten Bartel / Andreas Dank / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg / Kai Schröder</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Jörg Peters / Jens Krause</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Karsten Usinger / Wolfgang Aleksik / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Oliver Böss</t>
         </is>
       </c>
     </row>
@@ -9648,7 +9650,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="42" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
@@ -16510,7 +16512,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
@@ -16929,7 +16931,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -41145,7 +41147,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
   </cols>
@@ -41462,7 +41464,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -41607,7 +41609,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
@@ -42397,7 +42399,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -19,8 +19,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ABO Platzkosten" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wochenübersicht" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sanity Check" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Konflikte" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spielplan" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spielplan" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Konflikte" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -744,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1289,8 +1289,6 @@
     <xf numFmtId="0" fontId="6" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1964,20 +1962,20 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C4" s="153" t="inlineStr">
+      <c r="C4" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D4" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E4" s="204" t="inlineStr"/>
+      <c r="F4" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D4" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E4" s="204" t="inlineStr"/>
-      <c r="F4" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="G4" s="201" t="inlineStr">
@@ -2048,15 +2046,15 @@
         </is>
       </c>
       <c r="G5" s="204" t="inlineStr"/>
-      <c r="K5" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="K5" s="203" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="N5" s="204" t="inlineStr"/>
-      <c r="W5" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="W5" s="203" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="AB5" s="203" t="inlineStr">
@@ -2133,9 +2131,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C7" s="153" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
+      <c r="C7" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D7" s="197" t="inlineStr">
@@ -2169,9 +2167,9 @@
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="S7" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="S7" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="W7" s="201" t="inlineStr">
@@ -2301,9 +2299,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="E10" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLB</t>
+      <c r="E10" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="F10" s="196" t="inlineStr">
@@ -2316,9 +2314,9 @@
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="K10" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLB</t>
+      <c r="K10" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="L10" s="201" t="inlineStr">
@@ -2514,14 +2512,14 @@
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="V13" s="208" t="inlineStr">
+      <c r="V13" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="X13" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="X13" s="208" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="AD13" s="197" t="inlineStr">
@@ -2636,24 +2634,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C16" s="153" t="inlineStr">
+      <c r="C16" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D16" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E16" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F16" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D16" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E16" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F16" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="J16" s="201" t="inlineStr">
@@ -2718,9 +2716,9 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K17" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="K17" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="N17" s="201" t="inlineStr">
@@ -2733,9 +2731,9 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AC17" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="AC17" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2802,24 +2800,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C19" s="153" t="inlineStr">
+      <c r="C19" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D19" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="F19" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="G19" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D19" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="F19" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="G19" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="I19" s="196" t="inlineStr">
@@ -2884,9 +2882,9 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K20" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="K20" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="N20" s="201" t="inlineStr">
@@ -2899,9 +2897,9 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AC20" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="AC20" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -2968,64 +2966,64 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C22" s="209" t="inlineStr">
+      <c r="C22" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D22" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E22" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F22" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="D22" s="197" t="inlineStr">
+      <c r="G22" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="J22" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="E22" s="201" t="inlineStr">
+      <c r="L22" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="P22" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="Q22" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="V22" s="201" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="X22" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="F22" s="208" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="G22" s="153" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="J22" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="L22" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="P22" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Q22" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="V22" s="208" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="X22" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AC22" s="153" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
+      <c r="AC22" s="201" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
         </is>
       </c>
     </row>
@@ -3290,24 +3288,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C28" s="153" t="inlineStr">
+      <c r="C28" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D28" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E28" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F28" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D28" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E28" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F28" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="I28" s="196" t="inlineStr">
@@ -3456,54 +3454,54 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C31" s="153" t="inlineStr">
+      <c r="C31" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D31" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="F31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="G31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="J31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q31" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="T31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="W31" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="X31" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AG31" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D31" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="F31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="G31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="J31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="Q31" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="T31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="W31" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X31" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AG31" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AK31" s="201" t="inlineStr">
@@ -3538,9 +3536,9 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K32" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="K32" s="203" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="N32" s="201" t="inlineStr">
@@ -3548,9 +3546,9 @@
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="V32" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-90 PLB</t>
+      <c r="V32" s="201" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="AB32" s="201" t="inlineStr">
@@ -3788,24 +3786,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C37" s="153" t="inlineStr">
+      <c r="C37" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D37" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E37" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F37" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D37" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E37" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F37" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="G37" s="201" t="inlineStr">
@@ -4120,24 +4118,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C43" s="153" t="inlineStr">
+      <c r="C43" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E43" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F43" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="G43" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="E43" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F43" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="G43" s="153" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="I43" s="196" t="inlineStr">
@@ -4287,9 +4285,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="D46" s="153" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
+      <c r="D46" s="201" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLA</t>
         </is>
       </c>
       <c r="E46" s="201" t="inlineStr">
@@ -4307,9 +4305,9 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AC46" s="153" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
+      <c r="AC46" s="201" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLA</t>
         </is>
       </c>
       <c r="AG46" s="201" t="inlineStr">
@@ -4429,59 +4427,59 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="E49" s="153" t="inlineStr">
+      <c r="E49" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="G49" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="J49" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="K49" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="G49" s="201" t="inlineStr">
+      <c r="L49" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="J49" s="153" t="inlineStr">
+      <c r="T49" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="V49" s="201" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="Z49" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AC49" s="201" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="AK49" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AO49" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="K49" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="L49" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="T49" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="V49" s="153" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="Z49" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AC49" s="153" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AK49" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AO49" s="153" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6057,7 +6055,3537 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Grund</t>
+          <t>Typ</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Spieler</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="202" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="202" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Jan Pappenheim / Kerstin Baarck / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Kai Schroder / Wolfgang Aleksik / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Jorg Peters</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="202" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="202" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="202" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="202" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Peter Plahn / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="202" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sebastian Braune / Tobias Kahl / Lena Meiß / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jurgen Hansen / Kai Schroder / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="202" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Gunnar Brix / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="202" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Frank Koller / Andreas Dank</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="202" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="202" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Jorg Peters / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="202" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Kai Schroder / Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Sebastian Braune / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="202" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="202" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="202" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="202" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Jorg Peters / Peter Plahn / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="202" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Anke Ihde / Tobias Kahl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Sebastian Braune</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="202" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Gunnar Brix / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="202" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="202" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Oliver Boss / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="202" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="202" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Manfred Grell / Michael Bock / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Wolfgang Aleksik</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Kai Schroder</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="202" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="202" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="202" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="202" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="202" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Jan Pappenheim / Tobias Kahl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Manfred Grell / Jurgen Hansen / Kai Schroder</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Jorg Peters / Jens Krause</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="202" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="202" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="202" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="202" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="202" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Andreas Dank / Tobias Kahl / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Manfred Grell / Kai Schroder / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Jorg Peters</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Jens Krause / Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="202" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="202" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="202" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="202" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="202" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Jan Pappenheim / Jens Hafner / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Karsten Usinger / Anke Ihde / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Frank Koller / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Markus Muench / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="202" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="202" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Jens Krause / Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="202" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="202" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Jorg Peters / Peter Plahn / Lars Staubermann / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="202" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Manfred Grell / Karsten Usinger / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Kai Schroder</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Wolfgang Aleksik</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="202" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="202" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Carsten Gambal</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="202" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="202" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="202" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Sebastian Braune / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Manfred Grell / Michael Bock / Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Frank Koller / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Jens Hafner / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="202" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Lorenz Kramp / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="202" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="202" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="202" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="202" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Jens Krause / Jan Pappenheim / Andreas Dank / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Ralf Colditz / Karsten Usinger / Sebastian Braune / Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Frank Koller / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="202" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="202" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="202" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="202" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="202" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Carsten Gambal / Gunnar Brix / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Jens Krause / Ralf Colditz / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Markus Muench / Sebastian Braune / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Jorg Peters</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="202" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Bernd Sotzek / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="202" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Karsten Usinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="202" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="202" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="202" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck / Karsten Usinger / Gunnar Brix / Arndt Stuber</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Kai Schroder / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Jens Krause / Jan Pappenheim / Sebastian Braune / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="202" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Tobias Kahl / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="202" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="202" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Frank Petermann / Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="202" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="202" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck / Sebastian Braune / Andreas Dank / Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Matthias Duddek / Karsten Usinger / Markus Muench / Gunnar Brix</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Jurgen Hansen / Bernd Robioneck / Ralf Colditz / Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Jorg Peters / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="202" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Kai Schroder / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="202" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="202" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Torsten Bartel / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="202" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="202" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Oliver Boss</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Jens Krause / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="202" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="202" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Lars Staubermann / Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="202" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider / Andreas Dank</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="202" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Peter Plahn / MARTIN LANGE / Kerstin Baarck / Bjorn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="202" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry / Torsten Bartel / Andreas Dank / Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>D20:30-90 PLA</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Manfred Grell / Karsten Usinger / Wolfgang Aleksik / Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Thomas Gruneberg / Kai Schroder</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Jorg Peters / Jens Krause</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch / Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="202" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>E20:30-90 PLB</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Liam Wilde / Oliver Boss</t>
         </is>
       </c>
     </row>
@@ -6072,7 +9600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6098,3537 +9626,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Typ</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Spieler</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="202" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="202" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Jan Pappenheim / Kerstin Baarck / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Jörg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Kai Schröder / Wolfgang Aleksik / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen / Michael Bock / Markus Muench / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="202" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="202" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="202" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Peter Plähn / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="202" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Sebastian Braune / Tobias Kahl / Lena Meiß / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Gunnar Brix / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jürgen Hansen / Kai Schröder / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Michael Bock / Jan Pappenheim / Markus Muench / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="202" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Frank Koller / Andreas Dank</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="202" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="202" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Jörg Peters / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="202" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen / Kai Schröder / Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Sebastian Braune / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="202" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="202" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="202" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Jörg Peters / Peter Plähn / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="202" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Anke Ihde / Tobias Kahl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Sebastian Braune</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Gunnar Brix / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="202" t="n">
-        <v>45939</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="202" t="n">
-        <v>45939</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Oliver Böss / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="202" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="202" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Wolfgang Aleksik</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Kai Schröder</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jürgen Hansen / Michael Bock / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="202" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="202" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="202" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="202" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Jan Pappenheim / Tobias Kahl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Jens Krause</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jürgen Hansen / Jörg Peters / Kai Schröder</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="202" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="202" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="202" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="202" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Andreas Dank / Tobias Kahl / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jürgen Hansen / Kai Schröder / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Jörg Peters / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="202" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="202" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="202" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="202" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Frank Koller / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Markus Muench / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jan Pappenheim / Jens Hafner / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Karsten Usinger / Anke Ihde / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="202" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="202" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="202" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Jörg Peters / Peter Plähn / Lars Staubermann / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="202" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Kai Schröder</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jürgen Hansen / Karsten Usinger / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Wolfgang Aleksik</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="202" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Carsten Gambal</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="202" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="202" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="202" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Sebastian Braune / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Frank Koller / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Michael Bock / Markus Muench / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen / Jörg Peters / Kai Schröder / Karsten Usinger</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="202" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="202" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="202" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="202" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Frank Koller / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Jens Krause / Jan Pappenheim / Andreas Dank / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Karsten Usinger / Sebastian Braune / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="202" t="n">
-        <v>45988</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="202" t="n">
-        <v>45988</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="202" t="n">
-        <v>45992</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="202" t="n">
-        <v>45992</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Carsten Gambal / Gunnar Brix / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Jörg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Bernd Sotzek / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Markus Muench / Sebastian Braune / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen / Jens Krause / Ralf Colditz / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="202" t="n">
-        <v>45995</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Karsten Usinger</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="202" t="n">
-        <v>45995</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="202" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="202" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Tobias Kahl / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Kai Schröder / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Karsten Usinger / Gunnar Brix / Arndt Stüber</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Jens Krause / Jan Pappenheim / Sebastian Braune / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="202" t="n">
-        <v>46002</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="202" t="n">
-        <v>46002</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="202" t="n">
-        <v>46006</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="202" t="n">
-        <v>46006</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Sebastian Braune / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Kai Schröder / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen / Bernd Robioneck / Ralf Colditz / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Jörg Peters / Karsten Usinger / Markus Muench / Gunnar Brix</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="202" t="n">
-        <v>46009</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="202" t="n">
-        <v>46009</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="202" t="n">
-        <v>46013</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Mohamad Albadry / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="202" t="n">
-        <v>46013</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Jens Krause / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Oliver Böss</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="202" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="202" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Andreas Dank</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="202" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Peter Plähn / MARTIN LANGE / Kerstin Baarck / Björn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="202" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Torsten Bartel / Andreas Dank / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Thomas Grüneberg / Kai Schröder</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Jörg Peters / Jens Krause</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Karsten Usinger / Wolfgang Aleksik / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Böss</t>
+          <t>Grund</t>
         </is>
       </c>
     </row>
@@ -9650,7 +9648,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="42" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
@@ -16512,7 +16510,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
@@ -16931,7 +16929,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -41147,7 +41145,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
   </cols>
@@ -41464,7 +41462,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -41609,7 +41607,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
@@ -42399,7 +42397,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>

--- a/trainplan.xlsx
+++ b/trainplan.xlsx
@@ -18,9 +18,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Platzgebühren" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ABO Platzkosten" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wochenübersicht" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sanity Check" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spielplan" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Konflikte" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spielplan" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Konflikte" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sanity Check" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -744,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1289,6 +1289,8 @@
     <xf numFmtId="0" fontId="6" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1962,45 +1964,45 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C4" s="196" t="inlineStr">
+      <c r="C4" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D4" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E4" s="204" t="inlineStr"/>
+      <c r="F4" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="D4" s="197" t="inlineStr">
+      <c r="G4" s="208" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="I4" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="J4" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="E4" s="204" t="inlineStr"/>
-      <c r="F4" s="201" t="inlineStr">
+      <c r="L4" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="N4" s="208" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="G4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="I4" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="J4" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="L4" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="N4" s="206" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="Q4" s="196" t="inlineStr">
@@ -2048,13 +2050,13 @@
       <c r="G5" s="204" t="inlineStr"/>
       <c r="K5" s="203" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E18:00-90 PLA</t>
         </is>
       </c>
       <c r="N5" s="204" t="inlineStr"/>
       <c r="W5" s="203" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E18:00-90 PLA</t>
         </is>
       </c>
       <c r="AB5" s="203" t="inlineStr">
@@ -2131,9 +2133,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C7" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
+      <c r="C7" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D7" s="197" t="inlineStr">
@@ -2157,24 +2159,24 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="N7" s="206" t="inlineStr">
+      <c r="N7" s="208" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="Q7" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="S7" s="153" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="W7" s="208" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Q7" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="S7" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="W7" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="X7" s="196" t="inlineStr">
@@ -2301,32 +2303,32 @@
       </c>
       <c r="E10" s="201" t="inlineStr">
         <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F10" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="J10" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="K10" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="L10" s="201" t="inlineStr">
+        <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="F10" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="J10" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="K10" s="201" t="inlineStr">
+      <c r="P10" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="L10" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="P10" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="S10" s="197" t="inlineStr">
@@ -2487,39 +2489,39 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="N13" s="206" t="inlineStr">
+      <c r="N13" s="208" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="P13" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q13" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="S13" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="T13" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="V13" s="208" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="P13" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="Q13" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="S13" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="T13" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="V13" s="201" t="inlineStr">
+      <c r="X13" s="208" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X13" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="AD13" s="197" t="inlineStr">
@@ -2634,24 +2636,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C16" s="197" t="inlineStr">
+      <c r="C16" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D16" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="D16" s="197" t="inlineStr">
+      <c r="E16" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F16" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E16" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F16" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="J16" s="201" t="inlineStr">
@@ -2718,7 +2720,7 @@
       </c>
       <c r="K17" s="201" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E18:00-90 PLA</t>
         </is>
       </c>
       <c r="N17" s="201" t="inlineStr">
@@ -2733,7 +2735,7 @@
       </c>
       <c r="AC17" s="201" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E18:00-90 PLA</t>
         </is>
       </c>
     </row>
@@ -2800,24 +2802,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C19" s="197" t="inlineStr">
+      <c r="C19" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D19" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="D19" s="197" t="inlineStr">
+      <c r="F19" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="F19" s="197" t="inlineStr">
+      <c r="G19" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="G19" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="I19" s="196" t="inlineStr">
@@ -2884,7 +2886,7 @@
       </c>
       <c r="K20" s="201" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E18:00-90 PLA</t>
         </is>
       </c>
       <c r="N20" s="201" t="inlineStr">
@@ -2899,7 +2901,7 @@
       </c>
       <c r="AC20" s="201" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E18:00-90 PLA</t>
         </is>
       </c>
     </row>
@@ -2966,64 +2968,64 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C22" s="197" t="inlineStr">
+      <c r="C22" s="209" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D22" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="D22" s="197" t="inlineStr">
+      <c r="E22" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F22" s="208" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="E22" s="201" t="inlineStr">
+      <c r="G22" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="J22" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="L22" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="P22" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="Q22" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="V22" s="208" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="X22" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="F22" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="G22" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="J22" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="L22" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="P22" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Q22" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="V22" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="X22" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AC22" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
+      <c r="AC22" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
     </row>
@@ -3288,24 +3290,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C28" s="197" t="inlineStr">
+      <c r="C28" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D28" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="D28" s="197" t="inlineStr">
+      <c r="E28" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F28" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E28" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F28" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="I28" s="196" t="inlineStr">
@@ -3454,54 +3456,54 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C31" s="196" t="inlineStr">
+      <c r="C31" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D31" s="196" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="D31" s="196" t="inlineStr">
+      <c r="F31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="G31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="J31" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q31" s="196" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="F31" s="197" t="inlineStr">
+      <c r="T31" s="197" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="G31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="J31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="Q31" s="196" t="inlineStr">
+      <c r="W31" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="X31" s="196" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="T31" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="W31" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X31" s="196" t="inlineStr">
+      <c r="AG31" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AG31" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="AK31" s="201" t="inlineStr">
@@ -3538,7 +3540,7 @@
       </c>
       <c r="K32" s="203" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E18:00-90 PLA</t>
         </is>
       </c>
       <c r="N32" s="201" t="inlineStr">
@@ -3548,7 +3550,7 @@
       </c>
       <c r="V32" s="201" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E18:00-90 PLA</t>
         </is>
       </c>
       <c r="AB32" s="201" t="inlineStr">
@@ -3786,24 +3788,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C37" s="196" t="inlineStr">
+      <c r="C37" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D37" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E37" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F37" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D37" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E37" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F37" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="G37" s="201" t="inlineStr">
@@ -4118,24 +4120,24 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C43" s="197" t="inlineStr">
+      <c r="C43" s="153" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="E43" s="201" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="F43" s="196" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="G43" s="153" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E43" s="201" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F43" s="196" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="G43" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="I43" s="196" t="inlineStr">
@@ -4285,9 +4287,9 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="D46" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLA</t>
+      <c r="D46" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="E46" s="201" t="inlineStr">
@@ -4305,9 +4307,9 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AC46" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLA</t>
+      <c r="AC46" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="AG46" s="201" t="inlineStr">
@@ -4429,57 +4431,57 @@
       </c>
       <c r="E49" s="201" t="inlineStr">
         <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="G49" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="J49" s="201" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="K49" s="201" t="inlineStr">
+        <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="G49" s="201" t="inlineStr">
+      <c r="L49" s="201" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="J49" s="201" t="inlineStr">
+      <c r="T49" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="V49" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="Z49" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AC49" s="153" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AK49" s="197" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AO49" s="201" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="K49" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="L49" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="T49" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="V49" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="Z49" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AC49" s="201" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="AK49" s="197" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AO49" s="201" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
         </is>
       </c>
     </row>
@@ -5299,7 +5301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5310,712 +5312,3835 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Datum</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Slot</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Typ</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Spieler</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE, Lars Staubermann, Mohamad Albadry, Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Carsten Gambal, Jan Pappenheim, Kerstin Baarck, Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Einzel</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Gesamt</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Matthias Duddek, Frank Petermann</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Andreas Dank</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13</v>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Manfred Grell, Kai Schröder, Wolfgang Aleksik, Lorenz Kramp</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Anke Ihde</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen, Michael Bock, Markus Muench, Arndt Stüber</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arndt Stuber</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9</v>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Jörg Peters, Bernd Robioneck</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bernd Robioneck</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9</v>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Jens Krause, Frank Koller</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bernd Sotzek</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch, Frank Koller</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bjorn Junker</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>16</v>
-      </c>
-      <c r="D10" t="n">
-        <v>16</v>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Torsten Bartel, Michael Rabehl</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Carsten Gambal</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11</v>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Peter Plähn, Lars Staubermann, Mohamad Albadry, Björn Junker</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Frank Koller</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7</v>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sebastian Braune, Tobias Kahl, Lena Meiß, Martina Schmidt</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Frank Petermann</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>15</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>16</v>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Matthias Duddek, Frank Petermann</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gunnar Brix</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>8</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9</v>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Manfred Grell, Jürgen Hansen, Kai Schröder, Lorenz Kramp</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Heiko Thomsen</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck, Frank Koller</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jan Pappenheim</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9</v>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Michael Bock, Jan Pappenheim, Markus Muench, Arndt Stüber</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jens Hafner</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>11</v>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Gunnar Brix, Jens Hafner</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jens Krause</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>12</v>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Frank Koller, Andreas Dank</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jorg Peters</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>10</v>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Torsten Bartel, Michael Rabehl</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jurgen Hansen</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>10</v>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Jörg Peters, MARTIN LANGE, Lars Staubermann, Björn Junker</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kai Schroder</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11</v>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck, Gunnar Brix, Andreas Dank, Tobias Kahl</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Karsten Usinger</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>10</v>
-      </c>
-      <c r="D22" t="n">
-        <v>11</v>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg, Patrick Buehrsch</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kerstin Baarck</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3</v>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen, Kai Schröder, Lorenz Kramp, Bernd Sotzek</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lars Staubermann</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" t="n">
-        <v>11</v>
-      </c>
-      <c r="D24" t="n">
-        <v>13</v>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Jens Krause, Ralf Colditz</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lena Meiß</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>5</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5</v>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim, Karsten Usinger, Sebastian Braune, Jens Hafner</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Liam Wilde</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>10</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>10</v>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liam Wilde, Oliver Böss</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lorenz Kramp</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D27" t="n">
-        <v>12</v>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck, Torsten Bartel</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Manfred Grell</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>3</v>
-      </c>
-      <c r="C28" t="n">
-        <v>10</v>
-      </c>
-      <c r="D28" t="n">
-        <v>13</v>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Carsten Gambal, Michael Rabehl</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Markus Muench</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>4</v>
-      </c>
-      <c r="C29" t="n">
-        <v>6</v>
-      </c>
-      <c r="D29" t="n">
-        <v>10</v>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Jörg Peters, Peter Plähn, Lars Staubermann, Björn Junker</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MARTIN LANGE</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>13</v>
-      </c>
-      <c r="D30" t="n">
-        <v>13</v>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry, Anke Ihde, Tobias Kahl, Martina Schmidt</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Martina Schmidt</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>7</v>
-      </c>
-      <c r="D31" t="n">
-        <v>7</v>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Matthias Duddek, Frank Petermann</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Matthias Duddek</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>9</v>
-      </c>
-      <c r="D32" t="n">
-        <v>10</v>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Manfred Grell, Markus Muench</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Michael Bock</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>10</v>
-      </c>
-      <c r="D33" t="n">
-        <v>10</v>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck, Ralf Colditz, Michael Bock, Sebastian Braune</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Michael Rabehl</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>6</v>
-      </c>
-      <c r="D34" t="n">
-        <v>6</v>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Jens Krause, Liam Wilde</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mohamad Albadry</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>13</v>
-      </c>
-      <c r="D35" t="n">
-        <v>13</v>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim, Karsten Usinger, Gunnar Brix, Jens Hafner</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Oliver Boss</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>10</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>10</v>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider, Arndt Stüber</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Patrick Buehrsch</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>7</v>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Oliver Böss, Michael Rabehl</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Peter Plahn</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>12</v>
-      </c>
-      <c r="D38" t="n">
-        <v>12</v>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Peter Plähn, MARTIN LANGE, Lars Staubermann, Björn Junker</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ralf Colditz</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>4</v>
-      </c>
-      <c r="C39" t="n">
-        <v>6</v>
-      </c>
-      <c r="D39" t="n">
-        <v>10</v>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Carsten Gambal, Gunnar Brix, Andreas Dank, Tobias Kahl</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sebastian Braune</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>8</v>
-      </c>
-      <c r="D40" t="n">
-        <v>8</v>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Matthias Duddek, Kai Schröder</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Thomas Bretschneider</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>9</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>9</v>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Manfred Grell, Jürgen Hansen, Michael Bock, Heiko Thomsen</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Thomas Gruneberg</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>12</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>12</v>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg, Wolfgang Aleksik</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Tobias Kahl</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" t="n">
-        <v>4</v>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Jens Krause, Ralf Colditz</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Torsten Bartel</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" t="n">
-        <v>7</v>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim, Karsten Usinger, Jens Hafner, Arndt Stüber</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Wolfgang Aleksik</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3</v>
-      </c>
-      <c r="D45" t="n">
-        <v>8</v>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch, Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Frank Petermann, Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE, Lars Staubermann, Mohamad Albadry, Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Carsten Gambal, Jan Pappenheim, Tobias Kahl, Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Matthias Duddek, Jens Krause</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Manfred Grell, Jürgen Hansen, Jörg Peters, Kai Schröder</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck, Michael Bock, Jens Hafner, Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Ralf Colditz, Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik, Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch, Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Frank Petermann, Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Peter Plähn, MARTIN LANGE, Lars Staubermann, Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Torsten Bartel, Andreas Dank, Tobias Kahl, Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Matthias Duddek, Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Manfred Grell, Jürgen Hansen, Kai Schröder, Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg, Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Jörg Peters, Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Jens Krause, Ralf Colditz</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck, Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Frank Petermann, Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Peter Plähn, MARTIN LANGE, Lars Staubermann, Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck, Gunnar Brix, Andreas Dank, Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Manfred Grell, Jan Pappenheim, Jens Hafner, Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Ralf Colditz, Karsten Usinger, Anke Ihde, Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Frank Koller, Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Markus Muench, Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik, Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Jens Krause, Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider, Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Jörg Peters, Peter Plähn, Lars Staubermann, Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry, Gunnar Brix, Andreas Dank, Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Matthias Duddek, Kai Schröder</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Manfred Grell, Jürgen Hansen, Karsten Usinger, Markus Muench</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg, Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck, Ralf Colditz, Michael Bock, Wolfgang Aleksik</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Lorenz Kramp, Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Frank Petermann, Carsten Gambal</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider, Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE, Lars Staubermann, Mohamad Albadry, Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Carsten Gambal, Sebastian Braune, Andreas Dank, Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Matthias Duddek, Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Manfred Grell, Michael Bock, Markus Muench, Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen, Jörg Peters, Kai Schröder, Karsten Usinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Frank Koller, Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Lorenz Kramp, Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>E18:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch, Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Frank Petermann, Torsten Bartel</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Peter Plähn, MARTIN LANGE, Mohamad Albadry, Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Carsten Gambal, Anke Ihde, Michael Rabehl, Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg, Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Jens Krause, Jan Pappenheim, Andreas Dank, Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Ralf Colditz, Karsten Usinger, Sebastian Braune, Tobias Kahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Frank Koller, Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik, Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Frank Petermann, Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider, Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Peter Plähn, MARTIN LANGE, Mohamad Albadry, Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Lars Staubermann, Carsten Gambal, Gunnar Brix, Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Matthias Duddek, Jörg Peters</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Manfred Grell, Markus Muench, Sebastian Braune, Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg, Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen, Jens Krause, Ralf Colditz, Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Bernd Sotzek, Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Frank Petermann, Karsten Usinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider, Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Peter Plähn, MARTIN LANGE, Mohamad Albadry, Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Carsten Gambal, Anke Ihde, Michael Rabehl, Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck, Karsten Usinger, Gunnar Brix, Arndt Stüber</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Kai Schröder, Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Jens Krause, Jan Pappenheim, Sebastian Braune, Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Wolfgang Aleksik, Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Tobias Kahl, Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Manfred Grell, Liam Wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Frank Petermann, Frank Koller</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Peter Plähn, MARTIN LANGE, Mohamad Albadry, Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck, Sebastian Braune, Andreas Dank, Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Matthias Duddek, Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg, Patrick Buehrsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen, Bernd Robioneck, Ralf Colditz, Michael Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Jörg Peters, Karsten Usinger, Markus Muench, Gunnar Brix</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Kai Schröder, Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Lars Staubermann, Thomas Bretschneider</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Torsten Bartel, Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Peter Plähn, MARTIN LANGE, Mohamad Albadry, Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Carsten Gambal, Anke Ihde, Michael Rabehl, Martina Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Manfred Grell, Oliver Böss</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg, Jens Hafner</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Jens Krause, Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Liam Wilde, Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Lars Staubermann, Heiko Thomsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider, Andreas Dank</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Peter Plähn, MARTIN LANGE, Kerstin Baarck, Björn Junker</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry, Torsten Bartel, Andreas Dank, Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Manfred Grell, Karsten Usinger, Wolfgang Aleksik, Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg, Kai Schröder</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Jörg Peters, Jens Krause</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch, Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Liam Wilde, Oliver Böss</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -6029,7 +9154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6055,3537 +9180,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Typ</t>
+          <t>Spieler</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Spieler</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="202" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="202" t="n">
-        <v>45915</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Jan Pappenheim / Kerstin Baarck / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Kai Schroder / Wolfgang Aleksik / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="202" t="n">
-        <v>45917</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="202" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="202" t="n">
-        <v>45918</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="202" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Peter Plahn / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="202" t="n">
-        <v>45922</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Sebastian Braune / Tobias Kahl / Lena Meiß / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Michael Bock / Markus Muench / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jurgen Hansen / Kai Schroder / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="202" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Gunnar Brix / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="202" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Frank Koller / Andreas Dank</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="202" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="202" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Jorg Peters / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="202" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Kai Schroder / Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Sebastian Braune / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="202" t="n">
-        <v>45931</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="202" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="202" t="n">
-        <v>45932</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="202" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Peter Plahn / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="202" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Anke Ihde / Tobias Kahl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Sebastian Braune</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="202" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Gunnar Brix / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="202" t="n">
-        <v>45939</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="202" t="n">
-        <v>45939</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Oliver Boss / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="202" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="202" t="n">
-        <v>45943</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Michael Bock / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Wolfgang Aleksik</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="202" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim / Karsten Usinger / Jens Hafner / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="202" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="202" t="n">
-        <v>45946</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="202" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="202" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Jan Pappenheim / Tobias Kahl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Jurgen Hansen / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Jens Krause</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Michael Bock / Jens Hafner / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="202" t="n">
-        <v>45952</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="202" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="202" t="n">
-        <v>45953</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="202" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="202" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Andreas Dank / Tobias Kahl / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Kai Schroder / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Jens Krause / Ralf Colditz</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="202" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="202" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="202" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="202" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="202" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Gunnar Brix / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Jan Pappenheim / Jens Hafner / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Karsten Usinger / Anke Ihde / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Frank Koller / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Markus Muench / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="202" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="202" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Jens Krause / Frank Petermann</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="202" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="202" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Peter Plahn / Lars Staubermann / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="202" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Gunnar Brix / Andreas Dank / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Karsten Usinger / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Ralf Colditz / Michael Bock / Wolfgang Aleksik</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="202" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="202" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Carsten Gambal</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="202" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="202" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE / Lars Staubermann / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="202" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Sebastian Braune / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Manfred Grell / Michael Bock / Markus Muench</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters / Kai Schroder / Karsten Usinger</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Frank Koller / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Jens Hafner / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="202" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Lorenz Kramp / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="202" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="202" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Torsten Bartel</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="202" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="202" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Jens Krause / Jan Pappenheim / Andreas Dank / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Ralf Colditz / Karsten Usinger / Sebastian Braune / Tobias Kahl</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Frank Koller / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="202" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="202" t="n">
-        <v>45988</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="202" t="n">
-        <v>45988</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="202" t="n">
-        <v>45992</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="202" t="n">
-        <v>45992</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Carsten Gambal / Gunnar Brix / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Jens Krause / Ralf Colditz / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Markus Muench / Sebastian Braune / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Jorg Peters</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="202" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Bernd Sotzek / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="202" t="n">
-        <v>45995</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Karsten Usinger</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="202" t="n">
-        <v>45995</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="202" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="202" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck / Karsten Usinger / Gunnar Brix / Arndt Stuber</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Kai Schroder / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Jens Krause / Jan Pappenheim / Sebastian Braune / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Wolfgang Aleksik / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="202" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Tobias Kahl / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="202" t="n">
-        <v>46002</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Liam Wilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="202" t="n">
-        <v>46002</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Frank Petermann / Frank Koller</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="202" t="n">
-        <v>46006</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="202" t="n">
-        <v>46006</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck / Sebastian Braune / Andreas Dank / Lena Meiß</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Matthias Duddek / Karsten Usinger / Markus Muench / Gunnar Brix</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Patrick Buehrsch</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Jurgen Hansen / Bernd Robioneck / Ralf Colditz / Michael Bock</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="202" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Kai Schroder / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="202" t="n">
-        <v>46009</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Thomas Bretschneider</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="202" t="n">
-        <v>46009</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Torsten Bartel / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="202" t="n">
-        <v>46013</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Mohamad Albadry / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="202" t="n">
-        <v>46013</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Carsten Gambal / Anke Ihde / Michael Rabehl / Martina Schmidt</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Oliver Boss</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Jens Hafner</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Jens Krause / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="202" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="202" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Lars Staubermann / Heiko Thomsen</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="202" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Donnerstag</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider / Andreas Dank</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="202" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Peter Plahn / MARTIN LANGE / Kerstin Baarck / Bjorn Junker</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="202" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Montag</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry / Torsten Bartel / Andreas Dank / Michael Rabehl</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>D20:30-90 PLA</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Doppel</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Manfred Grell / Karsten Usinger / Wolfgang Aleksik / Lorenz Kramp</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Thomas Gruneberg / Kai Schroder</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Jorg Peters / Jens Krause</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch / Bernd Sotzek</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="202" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>E20:30-90 PLB</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Einzel</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Liam Wilde / Oliver Boss</t>
+          <t>Regel</t>
         </is>
       </c>
     </row>
@@ -9600,7 +9200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9611,23 +9211,83 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Datum</t>
+          <t>Check</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Tag</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Slot</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Grund</t>
-        </is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>headcount errors</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>&gt;20:00</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wed-Doppel≠20:00</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Patrick≠18:00</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Frank&lt;19:00</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Matthias≥20:00</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mixed singles</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9648,7 +9308,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="42" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
@@ -16510,7 +16170,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
@@ -16929,7 +16589,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -41145,7 +40805,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
   </cols>
@@ -41462,7 +41122,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -41607,7 +41267,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
@@ -42397,7 +42057,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>
